--- a/RPS_J1_fivethirtyeight.xlsx
+++ b/RPS_J1_fivethirtyeight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE84EA90-4954-284A-BBD1-329FE10174C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899AD6D-3DA0-094D-81E8-2C11445A6364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
+    <workbookView xWindow="8560" yWindow="1340" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
   </bookViews>
   <sheets>
     <sheet name="fivethirtyeight" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45325C-3FF3-8640-942E-A0432CD44893}">
   <dimension ref="B1:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="L2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.25810237902777777</v>
+        <v>0.24128576352272732</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -2478,19 +2478,53 @@
         <v>45044</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>0.66959999999999997</v>
+        <v>0.2631</v>
       </c>
       <c r="F38">
-        <v>0.19500000000000001</v>
+        <v>0.1973</v>
       </c>
       <c r="G38">
-        <v>0.13539999999999999</v>
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J45" si="7">S38*(1/2)</f>
+        <v>0.140594885</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N45" si="8">IF(H38&gt;I38,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:O45" si="9">IF(H38=I38,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ref="P38:P45" si="10">IF(H38&lt;I38,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:Q45" si="11">(E38-N38)^2</f>
+        <v>6.9221610000000003E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38:R45" si="12">((E38+F38)-(N38+O38))^2+Q38</f>
+        <v>0.28118977000000001</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:S45" si="13">((E38+F38+G38)-(N38+O38+P38))^2+R38</f>
+        <v>0.28118977000000001</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
@@ -2504,13 +2538,47 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>0.2631</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="F39">
-        <v>0.1973</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="G39">
-        <v>0.53959999999999997</v>
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="7"/>
+        <v>6.3748660000000013E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="11"/>
+        <v>0.10916416000000002</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="12"/>
+        <v>0.12749732000000003</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="13"/>
+        <v>0.12749732000000003</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
@@ -2518,10 +2586,10 @@
         <v>45044</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>0.35859999999999997</v>
@@ -2531,6 +2599,40 @@
       </c>
       <c r="G40">
         <v>0.39140000000000003</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>0.24949396000000001</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="11"/>
+        <v>0.12859395999999998</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="12"/>
+        <v>0.49898792000000003</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="13"/>
+        <v>0.49898792000000003</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
@@ -2538,19 +2640,53 @@
         <v>45044</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0.52800000000000002</v>
+        <v>0.38019999999999998</v>
       </c>
       <c r="F41">
-        <v>0.2364</v>
+        <v>0.26329999999999998</v>
       </c>
       <c r="G41">
-        <v>0.2356</v>
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>0.25562215000000005</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="11"/>
+        <v>0.38415204000000003</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="12"/>
+        <v>0.51124429000000005</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="13"/>
+        <v>0.5112443000000001</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
@@ -2572,25 +2708,93 @@
       <c r="G42">
         <v>0.2336</v>
       </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>0.17446850999999999</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="11"/>
+        <v>0.29441475999999994</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="12"/>
+        <v>0.34893700999999999</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="13"/>
+        <v>0.34893701999999999</v>
+      </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>45044</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>0.38019999999999998</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F43">
-        <v>0.26329999999999998</v>
+        <v>0.2364</v>
       </c>
       <c r="G43">
-        <v>0.35639999999999999</v>
+        <v>0.2356</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>0.16714568000000002</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="11"/>
+        <v>0.27878400000000003</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="12"/>
+        <v>0.33429136000000004</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="13"/>
+        <v>0.33429136000000004</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
@@ -2612,6 +2816,40 @@
       <c r="G44">
         <v>0.51739999999999997</v>
       </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>0.14942449999999999</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="11"/>
+        <v>6.5946239999999989E-2</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="12"/>
+        <v>0.29884899999999998</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="13"/>
+        <v>0.29884899999999998</v>
+      </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
@@ -2632,6 +2870,40 @@
       <c r="G45">
         <v>0.2225</v>
       </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>0.12438960500000001</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="11"/>
+        <v>0.19927296000000003</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="12"/>
+        <v>0.24877921000000003</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="13"/>
+        <v>0.24877921000000003</v>
+      </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
@@ -2643,16 +2915,34 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
+      <c r="E46">
+        <v>0.2283</v>
+      </c>
+      <c r="F46">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="G46">
+        <v>0.55710000000000004</v>
+      </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>45048</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.24210000000000001</v>
+      </c>
+      <c r="G47">
+        <v>0.48780000000000001</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
@@ -2660,24 +2950,42 @@
         <v>45048</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>0.32919999999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.20760000000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.46310000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>45048</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E49">
+        <v>0.1681</v>
+      </c>
+      <c r="F49">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="G49">
+        <v>0.63370000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>45048</v>
       </c>
@@ -2687,30 +2995,57 @@
       <c r="D50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="F50">
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="G50">
+        <v>0.30690000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>45048</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E51">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="F51">
+        <v>0.26769999999999999</v>
+      </c>
+      <c r="G51">
+        <v>0.4471</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>45048</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <v>0.32669999999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.25</v>
+      </c>
+      <c r="G52">
+        <v>0.42330000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>45049</v>
       </c>
@@ -2720,8 +3055,17 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="F53">
+        <v>0.2339</v>
+      </c>
+      <c r="G53">
+        <v>0.44419999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>45051</v>
       </c>
@@ -2731,8 +3075,17 @@
       <c r="D54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.2114</v>
+      </c>
+      <c r="G54">
+        <v>0.39910000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>45052</v>
       </c>
@@ -2742,8 +3095,17 @@
       <c r="D55" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="F55">
+        <v>0.2366</v>
+      </c>
+      <c r="G55">
+        <v>0.17519999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>45052</v>
       </c>
@@ -2753,52 +3115,88 @@
       <c r="D56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="F56">
+        <v>0.2331</v>
+      </c>
+      <c r="G56">
+        <v>0.19159999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>45052</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>0.79479999999999995</v>
+      </c>
+      <c r="F57">
+        <v>0.1336</v>
+      </c>
+      <c r="G57">
+        <v>7.1499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>45052</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="F58">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.16420000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>45052</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="F59">
+        <v>0.253</v>
+      </c>
+      <c r="G59">
+        <v>0.35149999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>45052</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <v>45052</v>
       </c>
@@ -2809,7 +3207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>45056</v>
       </c>
@@ -2820,7 +3218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <v>45058</v>
       </c>
@@ -2831,7 +3229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
         <v>45058</v>
       </c>
@@ -2869,10 +3267,10 @@
         <v>45059</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
@@ -2880,10 +3278,10 @@
         <v>45059</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
@@ -2891,10 +3289,10 @@
         <v>45059</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
@@ -2946,10 +3344,10 @@
         <v>45065</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
@@ -2957,10 +3355,10 @@
         <v>45065</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
@@ -2968,10 +3366,10 @@
         <v>45065</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
@@ -2979,10 +3377,10 @@
         <v>45066</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
@@ -2990,10 +3388,10 @@
         <v>45066</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
@@ -3078,10 +3476,10 @@
         <v>45073</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
@@ -3089,10 +3487,10 @@
         <v>45073</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
@@ -3100,10 +3498,10 @@
         <v>45073</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
@@ -3342,10 +3740,10 @@
         <v>45101</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
@@ -3364,10 +3762,10 @@
         <v>45101</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
@@ -3452,10 +3850,10 @@
         <v>45108</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
@@ -3463,10 +3861,10 @@
         <v>45108</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
@@ -3474,10 +3872,10 @@
         <v>45108</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
@@ -3496,10 +3894,10 @@
         <v>45108</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
@@ -3507,10 +3905,10 @@
         <v>45108</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
@@ -3518,10 +3916,10 @@
         <v>45108</v>
       </c>
       <c r="C126" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
@@ -3573,10 +3971,10 @@
         <v>45115</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
@@ -3584,10 +3982,10 @@
         <v>45115</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
@@ -3595,10 +3993,10 @@
         <v>45115</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
@@ -3606,10 +4004,10 @@
         <v>45115</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
@@ -3617,10 +4015,10 @@
         <v>45115</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
@@ -3672,10 +4070,10 @@
         <v>45123</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
@@ -3683,10 +4081,10 @@
         <v>45123</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
@@ -3694,10 +4092,10 @@
         <v>45123</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
@@ -3705,10 +4103,10 @@
         <v>45123</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
@@ -3716,10 +4114,10 @@
         <v>45123</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
@@ -3727,10 +4125,10 @@
         <v>45123</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
@@ -3738,10 +4136,10 @@
         <v>45143</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
@@ -3749,10 +4147,10 @@
         <v>45143</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
@@ -3782,10 +4180,10 @@
         <v>45144</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
@@ -3793,10 +4191,10 @@
         <v>45144</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
@@ -3804,10 +4202,10 @@
         <v>45144</v>
       </c>
       <c r="C152" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
@@ -3815,10 +4213,10 @@
         <v>45144</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
@@ -3826,10 +4224,10 @@
         <v>45144</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
@@ -3958,10 +4356,10 @@
         <v>45157</v>
       </c>
       <c r="C166" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
@@ -3980,10 +4378,10 @@
         <v>45157</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
@@ -3991,10 +4389,10 @@
         <v>45157</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D169" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
@@ -4002,10 +4400,10 @@
         <v>45157</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
@@ -4079,10 +4477,10 @@
         <v>45164</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
@@ -4090,10 +4488,10 @@
         <v>45164</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
@@ -4101,10 +4499,10 @@
         <v>45164</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
@@ -4112,10 +4510,10 @@
         <v>45164</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
@@ -4134,10 +4532,10 @@
         <v>45171</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
@@ -4156,10 +4554,10 @@
         <v>45171</v>
       </c>
       <c r="C184" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
@@ -4167,10 +4565,10 @@
         <v>45171</v>
       </c>
       <c r="C185" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
@@ -4178,10 +4576,10 @@
         <v>45171</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
@@ -4189,10 +4587,10 @@
         <v>45171</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
@@ -4200,10 +4598,10 @@
         <v>45171</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
@@ -4211,10 +4609,10 @@
         <v>45171</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
@@ -4222,10 +4620,10 @@
         <v>45171</v>
       </c>
       <c r="C190" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
@@ -4233,10 +4631,10 @@
         <v>45185</v>
       </c>
       <c r="C191" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
@@ -4244,10 +4642,10 @@
         <v>45185</v>
       </c>
       <c r="C192" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
@@ -4255,10 +4653,10 @@
         <v>45185</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
@@ -4266,10 +4664,10 @@
         <v>45185</v>
       </c>
       <c r="C194" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D194" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
@@ -4277,10 +4675,10 @@
         <v>45185</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D195" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
@@ -4288,10 +4686,10 @@
         <v>45185</v>
       </c>
       <c r="C196" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
@@ -4299,10 +4697,10 @@
         <v>45185</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
@@ -4310,10 +4708,10 @@
         <v>45185</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
@@ -4321,10 +4719,10 @@
         <v>45185</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D199" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
@@ -4332,10 +4730,10 @@
         <v>45192</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
@@ -4365,10 +4763,10 @@
         <v>45192</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
@@ -4376,10 +4774,10 @@
         <v>45192</v>
       </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
@@ -4387,10 +4785,10 @@
         <v>45192</v>
       </c>
       <c r="C205" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
@@ -4398,10 +4796,10 @@
         <v>45192</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
@@ -4409,10 +4807,10 @@
         <v>45192</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
@@ -4420,10 +4818,10 @@
         <v>45192</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
@@ -4431,10 +4829,10 @@
         <v>45199</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
@@ -4442,10 +4840,10 @@
         <v>45199</v>
       </c>
       <c r="C210" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
@@ -4453,10 +4851,10 @@
         <v>45199</v>
       </c>
       <c r="C211" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
@@ -4464,10 +4862,10 @@
         <v>45199</v>
       </c>
       <c r="C212" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
@@ -4475,10 +4873,10 @@
         <v>45199</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D213" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
@@ -4486,10 +4884,10 @@
         <v>45199</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
@@ -4497,10 +4895,10 @@
         <v>45199</v>
       </c>
       <c r="C215" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
@@ -4508,10 +4906,10 @@
         <v>45199</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
@@ -4519,10 +4917,10 @@
         <v>45199</v>
       </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
@@ -4530,10 +4928,10 @@
         <v>45220</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D218" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
@@ -4541,10 +4939,10 @@
         <v>45220</v>
       </c>
       <c r="C219" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D219" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
@@ -4552,10 +4950,10 @@
         <v>45220</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
@@ -4563,10 +4961,10 @@
         <v>45220</v>
       </c>
       <c r="C221" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D221" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
@@ -4574,10 +4972,10 @@
         <v>45220</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
@@ -4585,10 +4983,10 @@
         <v>45220</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
@@ -4596,10 +4994,10 @@
         <v>45220</v>
       </c>
       <c r="C224" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D224" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
@@ -4607,10 +5005,10 @@
         <v>45220</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
@@ -4618,10 +5016,10 @@
         <v>45220</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
@@ -4640,10 +5038,10 @@
         <v>45227</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
@@ -4662,10 +5060,10 @@
         <v>45227</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
@@ -4673,10 +5071,10 @@
         <v>45227</v>
       </c>
       <c r="C231" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D231" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
@@ -4728,10 +5126,10 @@
         <v>45241</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D236" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
@@ -4739,10 +5137,10 @@
         <v>45241</v>
       </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D237" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
@@ -4750,10 +5148,10 @@
         <v>45241</v>
       </c>
       <c r="C238" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D238" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
@@ -4761,10 +5159,10 @@
         <v>45241</v>
       </c>
       <c r="C239" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
@@ -4772,10 +5170,10 @@
         <v>45241</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
@@ -4783,10 +5181,10 @@
         <v>45241</v>
       </c>
       <c r="C241" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
@@ -4794,10 +5192,10 @@
         <v>45241</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D242" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
@@ -4805,10 +5203,10 @@
         <v>45241</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D243" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.2">
@@ -4816,10 +5214,10 @@
         <v>45241</v>
       </c>
       <c r="C244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D244" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
@@ -4827,10 +5225,10 @@
         <v>45255</v>
       </c>
       <c r="C245" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
@@ -4838,10 +5236,10 @@
         <v>45255</v>
       </c>
       <c r="C246" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D246" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
@@ -4849,10 +5247,10 @@
         <v>45255</v>
       </c>
       <c r="C247" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D247" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
@@ -4860,10 +5258,10 @@
         <v>45255</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D248" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
@@ -4871,10 +5269,10 @@
         <v>45255</v>
       </c>
       <c r="C249" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
@@ -4882,10 +5280,10 @@
         <v>45255</v>
       </c>
       <c r="C250" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D250" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
@@ -4893,10 +5291,10 @@
         <v>45255</v>
       </c>
       <c r="C251" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D251" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
@@ -4904,10 +5302,10 @@
         <v>45255</v>
       </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D252" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
@@ -4915,10 +5313,10 @@
         <v>45255</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D253" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
@@ -4937,10 +5335,10 @@
         <v>45262</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D255" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
@@ -4948,10 +5346,10 @@
         <v>45262</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D256" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
@@ -4970,10 +5368,10 @@
         <v>45262</v>
       </c>
       <c r="C258" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
@@ -4981,10 +5379,10 @@
         <v>45262</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
@@ -4992,10 +5390,10 @@
         <v>45262</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D260" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
@@ -5014,10 +5412,10 @@
         <v>45262</v>
       </c>
       <c r="C262" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D262" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/RPS_J1_fivethirtyeight.xlsx
+++ b/RPS_J1_fivethirtyeight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899AD6D-3DA0-094D-81E8-2C11445A6364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57165D1-E85C-D846-86A0-B2075347C6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="1340" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
+    <workbookView xWindow="12720" yWindow="940" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
   </bookViews>
   <sheets>
     <sheet name="fivethirtyeight" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45325C-3FF3-8640-942E-A0432CD44893}">
   <dimension ref="B1:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="L2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.24128576352272732</v>
+        <v>0.23645785250000004</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -2499,31 +2499,31 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:J45" si="7">S38*(1/2)</f>
+        <f t="shared" ref="J38:J53" si="7">S38*(1/2)</f>
         <v>0.140594885</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:N45" si="8">IF(H38&gt;I38,1,0)</f>
+        <f t="shared" ref="N38:N53" si="8">IF(H38&gt;I38,1,0)</f>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" ref="O38:O45" si="9">IF(H38=I38,1,0)</f>
+        <f t="shared" ref="O38:O53" si="9">IF(H38=I38,1,0)</f>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" ref="P38:P45" si="10">IF(H38&lt;I38,1,0)</f>
+        <f t="shared" ref="P38:P53" si="10">IF(H38&lt;I38,1,0)</f>
         <v>1</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q38:Q45" si="11">(E38-N38)^2</f>
+        <f t="shared" ref="Q38:Q53" si="11">(E38-N38)^2</f>
         <v>6.9221610000000003E-2</v>
       </c>
       <c r="R38">
-        <f t="shared" ref="R38:R45" si="12">((E38+F38)-(N38+O38))^2+Q38</f>
+        <f t="shared" ref="R38:R53" si="12">((E38+F38)-(N38+O38))^2+Q38</f>
         <v>0.28118977000000001</v>
       </c>
       <c r="S38">
-        <f t="shared" ref="S38:S45" si="13">((E38+F38+G38)-(N38+O38+P38))^2+R38</f>
+        <f t="shared" ref="S38:S53" si="13">((E38+F38+G38)-(N38+O38+P38))^2+R38</f>
         <v>0.28118977000000001</v>
       </c>
     </row>
@@ -2924,6 +2924,40 @@
       <c r="G46">
         <v>0.55710000000000004</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>0.12414065000000001</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="11"/>
+        <v>5.2120890000000003E-2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="12"/>
+        <v>0.24828130000000001</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="13"/>
+        <v>0.24828130000000001</v>
+      </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
@@ -2944,6 +2978,40 @@
       <c r="G47">
         <v>0.48780000000000001</v>
       </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>0.155451425</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="11"/>
+        <v>7.295401E-2</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="12"/>
+        <v>0.31090285000000001</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="13"/>
+        <v>0.31090285000000001</v>
+      </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="2">
@@ -2964,8 +3032,42 @@
       <c r="G48">
         <v>0.46310000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="7"/>
+        <v>0.19826344499999995</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="11"/>
+        <v>0.10837263999999999</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="12"/>
+        <v>0.39652687999999991</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="13"/>
+        <v>0.39652688999999991</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>45048</v>
       </c>
@@ -2984,8 +3086,42 @@
       <c r="G49">
         <v>0.63370000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>8.1216649999999974E-2</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="11"/>
+        <v>2.8257609999999999E-2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="12"/>
+        <v>0.16243329999999995</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="13"/>
+        <v>0.16243329999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>45048</v>
       </c>
@@ -3004,8 +3140,42 @@
       <c r="G50">
         <v>0.30690000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>0.33471932500000001</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="11"/>
+        <v>0.18905104</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="12"/>
+        <v>0.66943865000000002</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="13"/>
+        <v>0.66943865000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>45048</v>
       </c>
@@ -3024,8 +3194,42 @@
       <c r="G51">
         <v>0.4471</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="7"/>
+        <v>0.14061872500000003</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="11"/>
+        <v>8.1339040000000001E-2</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="12"/>
+        <v>0.28123745000000006</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="13"/>
+        <v>0.28123745000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>45048</v>
       </c>
@@ -3044,8 +3248,42 @@
       <c r="G52">
         <v>0.42330000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>0.31625788999999999</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="11"/>
+        <v>0.45333288999999999</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="12"/>
+        <v>0.63251577999999997</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="13"/>
+        <v>0.63251577999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>45049</v>
       </c>
@@ -3064,8 +3302,42 @@
       <c r="G53">
         <v>0.44419999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>0.32856662499999989</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="11"/>
+        <v>0.45981960999999988</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="12"/>
+        <v>0.65713324999999978</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="13"/>
+        <v>0.65713324999999978</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>45051</v>
       </c>
@@ -3076,16 +3348,16 @@
         <v>23</v>
       </c>
       <c r="E54">
-        <v>0.38950000000000001</v>
+        <v>0.38840000000000002</v>
       </c>
       <c r="F54">
-        <v>0.2114</v>
+        <v>0.39460000000000001</v>
       </c>
       <c r="G54">
-        <v>0.39910000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>45052</v>
       </c>
@@ -3096,16 +3368,16 @@
         <v>19</v>
       </c>
       <c r="E55">
-        <v>0.58830000000000005</v>
+        <v>0.62270000000000003</v>
       </c>
       <c r="F55">
-        <v>0.2366</v>
+        <v>0.155</v>
       </c>
       <c r="G55">
-        <v>0.17519999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.2223</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>45052</v>
       </c>
@@ -3116,87 +3388,96 @@
         <v>13</v>
       </c>
       <c r="E56">
-        <v>0.57530000000000003</v>
+        <v>0.56210000000000004</v>
       </c>
       <c r="F56">
-        <v>0.2331</v>
+        <v>0.1986</v>
       </c>
       <c r="G56">
-        <v>0.19159999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.2392</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>45052</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>0.79479999999999995</v>
+        <v>0.35170000000000001</v>
       </c>
       <c r="F57">
-        <v>0.1336</v>
+        <v>0.39750000000000002</v>
       </c>
       <c r="G57">
-        <v>7.1499999999999994E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.25080000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>45052</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E58">
-        <v>0.63929999999999998</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="F58">
-        <v>0.19650000000000001</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="G58">
-        <v>0.16420000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.1298</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>45052</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E59">
-        <v>0.39550000000000002</v>
+        <v>0.69930000000000003</v>
       </c>
       <c r="F59">
-        <v>0.253</v>
+        <v>0.1221</v>
       </c>
       <c r="G59">
-        <v>0.35149999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.17860000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>45052</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="F60">
+        <v>0.37269999999999998</v>
+      </c>
+      <c r="G60">
+        <v>0.25519999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <v>45052</v>
       </c>
@@ -3206,8 +3487,17 @@
       <c r="D61" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="F61">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="G61">
+        <v>0.19850000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>45056</v>
       </c>
@@ -3217,8 +3507,17 @@
       <c r="D62" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>0.6804</v>
+      </c>
+      <c r="F62">
+        <v>0.1217</v>
+      </c>
+      <c r="G62">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <v>45058</v>
       </c>
@@ -3229,7 +3528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
         <v>45058</v>
       </c>

--- a/RPS_J1_fivethirtyeight.xlsx
+++ b/RPS_J1_fivethirtyeight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57165D1-E85C-D846-86A0-B2075347C6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B51CC-C0D5-0941-AA15-9A8E9DA2CF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="940" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
   </bookViews>
   <sheets>
     <sheet name="fivethirtyeight" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45325C-3FF3-8640-942E-A0432CD44893}">
   <dimension ref="B1:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="L2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.23645785250000004</v>
+        <v>0.22736346378571429</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -3356,6 +3356,40 @@
       <c r="G54">
         <v>0.217</v>
       </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f t="shared" ref="J54:J62" si="14">S54*(1/2)</f>
+        <v>0.21057177999999996</v>
+      </c>
+      <c r="N54">
+        <f t="shared" ref="N54:N62" si="15">IF(H54&gt;I54,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f t="shared" ref="O54:O62" si="16">IF(H54=I54,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" ref="P54:P62" si="17">IF(H54&lt;I54,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" ref="Q54:Q62" si="18">(E54-N54)^2</f>
+        <v>0.37405455999999992</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ref="R54:R62" si="19">((E54+F54)-(N54+O54))^2+Q54</f>
+        <v>0.42114355999999992</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ref="S54:S62" si="20">((E54+F54+G54)-(N54+O54+P54))^2+R54</f>
+        <v>0.42114355999999992</v>
+      </c>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
@@ -3376,6 +3410,40 @@
       <c r="G55">
         <v>0.2223</v>
       </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="14"/>
+        <v>9.5886289999999971E-2</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="18"/>
+        <v>0.14235528999999997</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="19"/>
+        <v>0.19177257999999994</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="20"/>
+        <v>0.19177257999999994</v>
+      </c>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
@@ -3396,6 +3464,40 @@
       <c r="G56">
         <v>0.2392</v>
       </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="14"/>
+        <v>0.12451045499999996</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="18"/>
+        <v>0.19175640999999996</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="19"/>
+        <v>0.24902089999999993</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="20"/>
+        <v>0.24902090999999993</v>
+      </c>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
@@ -3416,6 +3518,40 @@
       <c r="G57">
         <v>0.25080000000000002</v>
       </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="14"/>
+        <v>0.34249676500000009</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="18"/>
+        <v>0.12369289000000001</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="19"/>
+        <v>0.68499353000000018</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="20"/>
+        <v>0.68499353000000018</v>
+      </c>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
@@ -3436,6 +3572,40 @@
       <c r="G58">
         <v>0.1298</v>
       </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="14"/>
+        <v>2.7632019999999979E-2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="18"/>
+        <v>3.8415999999999978E-2</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="19"/>
+        <v>5.5264039999999959E-2</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="20"/>
+        <v>5.5264039999999959E-2</v>
+      </c>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
@@ -3456,6 +3626,40 @@
       <c r="G59">
         <v>0.17860000000000001</v>
       </c>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="14"/>
+        <v>6.1159224999999984E-2</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="18"/>
+        <v>9.0420489999999978E-2</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="19"/>
+        <v>0.12231844999999997</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="20"/>
+        <v>0.12231844999999997</v>
+      </c>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
@@ -3476,6 +3680,40 @@
       <c r="G60">
         <v>0.25519999999999998</v>
       </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="14"/>
+        <v>0.10179272500000001</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="18"/>
+        <v>0.13845840999999998</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="19"/>
+        <v>0.20358545000000003</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="20"/>
+        <v>0.20358545000000003</v>
+      </c>
     </row>
     <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
@@ -3496,6 +3734,40 @@
       <c r="G61">
         <v>0.19850000000000001</v>
       </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="14"/>
+        <v>8.7670970000000015E-2</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="18"/>
+        <v>0.13593969000000003</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="19"/>
+        <v>0.17534194000000003</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="20"/>
+        <v>0.17534194000000003</v>
+      </c>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
@@ -3516,6 +3788,40 @@
       <c r="G62">
         <v>0.19800000000000001</v>
       </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="14"/>
+        <v>0.55315429000000005</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="18"/>
+        <v>0.46294415999999999</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="19"/>
+        <v>1.1063085700000002</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="20"/>
+        <v>1.1063085800000001</v>
+      </c>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
@@ -3527,6 +3833,49 @@
       <c r="D63" t="s">
         <v>27</v>
       </c>
+      <c r="E63">
+        <v>0.2515</v>
+      </c>
+      <c r="F63">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="G63">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63:J71" si="21">S63*(1/2)</f>
+        <v>0.42302470499999989</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63:N71" si="22">IF(H63&gt;I63,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ref="O63:O71" si="23">IF(H63=I63,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ref="P63:P71" si="24">IF(H63&lt;I63,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ref="Q63:Q71" si="25">(E63-N63)^2</f>
+        <v>0.5602522499999999</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ref="R63:R71" si="26">((E63+F63)-(N63+O63))^2+Q63</f>
+        <v>0.84604940999999978</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ref="S63:S71" si="27">((E63+F63+G63)-(N63+O63+P63))^2+R63</f>
+        <v>0.84604940999999978</v>
+      </c>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
@@ -3538,8 +3887,51 @@
       <c r="D64" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>0.51559999999999995</v>
+      </c>
+      <c r="F64">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="G64">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="21"/>
+        <v>0.14887240000000004</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="25"/>
+        <v>0.23464336000000005</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="26"/>
+        <v>0.29774480000000009</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="27"/>
+        <v>0.29774480000000009</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
         <v>45058</v>
       </c>
@@ -3549,8 +3941,51 @@
       <c r="D65" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>0.33550000000000002</v>
+      </c>
+      <c r="F65">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="G65">
+        <v>0.44940000000000002</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
+        <v>4</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="21"/>
+        <v>0.207860305</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="25"/>
+        <v>0.11256025000000001</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="26"/>
+        <v>0.41572060999999999</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="27"/>
+        <v>0.41572060999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
         <v>45059</v>
       </c>
@@ -3560,52 +3995,267 @@
       <c r="D66" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>0.5181</v>
+      </c>
+      <c r="F66">
+        <v>0.2409</v>
+      </c>
+      <c r="G66">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="21"/>
+        <v>0.42225430500000005</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="25"/>
+        <v>0.26842760999999998</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="26"/>
+        <v>0.8445086100000001</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="27"/>
+        <v>0.8445086100000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>45059</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E67">
+        <v>0.3866</v>
+      </c>
+      <c r="F67">
+        <v>0.26829999999999998</v>
+      </c>
+      <c r="G67">
+        <v>0.34520000000000001</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="21"/>
+        <v>0.13427678999999998</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="25"/>
+        <v>0.14945955999999999</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="26"/>
+        <v>0.26855356999999996</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="27"/>
+        <v>0.26855357999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>45059</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>0.1206</v>
+      </c>
+      <c r="F68">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="21"/>
+        <v>4.8113000000000003E-2</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="25"/>
+        <v>1.4544359999999999E-2</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="26"/>
+        <v>9.6226000000000006E-2</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="27"/>
+        <v>9.6226000000000006E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <v>45059</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>0.3931</v>
+      </c>
+      <c r="F69">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="G69">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="21"/>
+        <v>0.23960830499999997</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="25"/>
+        <v>0.36832760999999997</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="26"/>
+        <v>0.47921660999999993</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="27"/>
+        <v>0.47921660999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
         <v>45059</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E70">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="F70">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.435</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f>S70*(1/2)</f>
+        <v>0.33751700000000007</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="25"/>
+        <v>0.4858090000000001</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="26"/>
+        <v>0.67503400000000013</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="27"/>
+        <v>0.67503400000000013</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
         <v>45060</v>
       </c>
@@ -3615,8 +4265,51 @@
       <c r="D71" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>0.6956</v>
+      </c>
+      <c r="F71">
+        <v>0.18690000000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="21"/>
+        <v>5.3232804999999994E-2</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="25"/>
+        <v>9.2659359999999996E-2</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="26"/>
+        <v>0.10646560999999999</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="27"/>
+        <v>0.10646560999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
         <v>45065</v>
       </c>
@@ -3626,8 +4319,17 @@
       <c r="D72" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>0.54039999999999999</v>
+      </c>
+      <c r="F72">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.2525</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
         <v>45065</v>
       </c>
@@ -3637,8 +4339,17 @@
       <c r="D73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>0.1928</v>
+      </c>
+      <c r="F73">
+        <v>0.23480000000000001</v>
+      </c>
+      <c r="G73">
+        <v>0.57240000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
         <v>45065</v>
       </c>
@@ -3648,8 +4359,17 @@
       <c r="D74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F74">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="G74">
+        <v>0.35680000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
         <v>45065</v>
       </c>
@@ -3659,8 +4379,17 @@
       <c r="D75" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>0.29759999999999998</v>
+      </c>
+      <c r="F75">
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="G75">
+        <v>0.44879999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
         <v>45065</v>
       </c>
@@ -3670,8 +4399,17 @@
       <c r="D76" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="F76">
+        <v>0.2228</v>
+      </c>
+      <c r="G76">
+        <v>0.21859999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
         <v>45066</v>
       </c>
@@ -3681,8 +4419,17 @@
       <c r="D77" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>0.1162</v>
+      </c>
+      <c r="F77">
+        <v>0.19270000000000001</v>
+      </c>
+      <c r="G77">
+        <v>0.69110000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
         <v>45066</v>
       </c>
@@ -3692,8 +4439,17 @@
       <c r="D78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>0.1487</v>
+      </c>
+      <c r="F78">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="G78">
+        <v>0.67320000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
         <v>45066</v>
       </c>
@@ -3703,8 +4459,17 @@
       <c r="D79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="F79">
+        <v>0.26390000000000002</v>
+      </c>
+      <c r="G79">
+        <v>0.28270000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
         <v>45066</v>
       </c>
@@ -3713,6 +4478,15 @@
       </c>
       <c r="D80" t="s">
         <v>25</v>
+      </c>
+      <c r="E80">
+        <v>0.1414</v>
+      </c>
+      <c r="F80">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="G80">
+        <v>0.68969999999999998</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">

--- a/RPS_J1_fivethirtyeight.xlsx
+++ b/RPS_J1_fivethirtyeight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B51CC-C0D5-0941-AA15-9A8E9DA2CF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008E23E-615F-B14D-BBDA-35ABB0D37744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
+    <workbookView xWindow="740" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
   </bookViews>
   <sheets>
     <sheet name="fivethirtyeight" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45325C-3FF3-8640-942E-A0432CD44893}">
   <dimension ref="B1:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72:G80"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="L2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.22736346378571429</v>
+        <v>0.22488817930379745</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -4328,6 +4328,40 @@
       <c r="G72">
         <v>0.2525</v>
       </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J80" si="28">S72*(1/2)</f>
+        <v>0.13749420499999998</v>
+      </c>
+      <c r="N72">
+        <f t="shared" ref="N72:N80" si="29">IF(H72&gt;I72,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f t="shared" ref="O72:O80" si="30">IF(H72=I72,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" ref="P72:P80" si="31">IF(H72&lt;I72,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" ref="Q72:Q80" si="32">(E72-N72)^2</f>
+        <v>0.21123216</v>
+      </c>
+      <c r="R72">
+        <f t="shared" ref="R72:R80" si="33">((E72+F72)-(N72+O72))^2+Q72</f>
+        <v>0.27498840999999996</v>
+      </c>
+      <c r="S72">
+        <f t="shared" ref="S72:S80" si="34">((E72+F72+G72)-(N72+O72+P72))^2+R72</f>
+        <v>0.27498840999999996</v>
+      </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
@@ -4348,6 +4382,40 @@
       <c r="G73">
         <v>0.57240000000000002</v>
       </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="28"/>
+        <v>0.18240680000000001</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="32"/>
+        <v>3.7171839999999998E-2</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="33"/>
+        <v>0.36481360000000002</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="34"/>
+        <v>0.36481360000000002</v>
+      </c>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
@@ -4368,6 +4436,40 @@
       <c r="G74">
         <v>0.35680000000000001</v>
       </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="28"/>
+        <v>0.13140081000000001</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="32"/>
+        <v>0.13542399999999999</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="33"/>
+        <v>0.26280161000000002</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="34"/>
+        <v>0.26280162000000001</v>
+      </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
@@ -4388,6 +4490,40 @@
       <c r="G75">
         <v>0.44879999999999998</v>
       </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="28"/>
+        <v>0.19619359999999994</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="32"/>
+        <v>8.856575999999998E-2</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="33"/>
+        <v>0.39238719999999988</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="34"/>
+        <v>0.39238719999999988</v>
+      </c>
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
@@ -4408,6 +4544,40 @@
       <c r="G76">
         <v>0.21859999999999999</v>
       </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="28"/>
+        <v>0.12130996000000001</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="32"/>
+        <v>0.19483396</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="33"/>
+        <v>0.24261992000000002</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="34"/>
+        <v>0.24261992000000002</v>
+      </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
@@ -4428,6 +4598,40 @@
       <c r="G77">
         <v>0.69110000000000005</v>
       </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="28"/>
+        <v>0.24556082500000004</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="32"/>
+        <v>1.3502439999999999E-2</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="33"/>
+        <v>0.49112165000000008</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="34"/>
+        <v>0.49112165000000008</v>
+      </c>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
@@ -4448,6 +4652,40 @@
       <c r="G78">
         <v>0.67320000000000002</v>
       </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="28"/>
+        <v>0.588954965</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="32"/>
+        <v>0.72471168999999991</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="33"/>
+        <v>1.17790993</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="34"/>
+        <v>1.17790993</v>
+      </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
@@ -4468,6 +4706,40 @@
       <c r="G79">
         <v>0.28270000000000001</v>
       </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="28"/>
+        <v>0.18926250999999997</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="32"/>
+        <v>0.29866224999999996</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="33"/>
+        <v>0.37852500999999994</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="34"/>
+        <v>0.37852501999999993</v>
+      </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
@@ -4488,8 +4760,42 @@
       <c r="G80">
         <v>0.68969999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="28"/>
+        <v>5.8140025000000012E-2</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="32"/>
+        <v>1.9993959999999998E-2</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="33"/>
+        <v>0.11628005000000002</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="34"/>
+        <v>0.11628005000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
         <v>45072</v>
       </c>
@@ -4499,8 +4805,17 @@
       <c r="D81" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="F81">
+        <v>0.22789999999999999</v>
+      </c>
+      <c r="G81">
+        <v>0.42509999999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
         <v>45072</v>
       </c>
@@ -4510,8 +4825,17 @@
       <c r="D82" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="F82">
+        <v>0.19239999999999999</v>
+      </c>
+      <c r="G82">
+        <v>0.1439</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
         <v>45072</v>
       </c>
@@ -4521,8 +4845,17 @@
       <c r="D83" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="F83">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.1908</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
         <v>45073</v>
       </c>
@@ -4532,8 +4865,17 @@
       <c r="D84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="F84">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="G84">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
         <v>45073</v>
       </c>
@@ -4543,8 +4885,17 @@
       <c r="D85" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="F85">
+        <v>0.23180000000000001</v>
+      </c>
+      <c r="G85">
+        <v>0.59160000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
         <v>45073</v>
       </c>
@@ -4554,8 +4905,17 @@
       <c r="D86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="F86">
+        <v>0.188</v>
+      </c>
+      <c r="G86">
+        <v>0.12889999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
         <v>45073</v>
       </c>
@@ -4565,8 +4925,17 @@
       <c r="D87" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="F87">
+        <v>0.255</v>
+      </c>
+      <c r="G87">
+        <v>0.33879999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
         <v>45073</v>
       </c>
@@ -4576,8 +4945,17 @@
       <c r="D88" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>0.63039999999999996</v>
+      </c>
+      <c r="F88">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="G88">
+        <v>0.15670000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
         <v>45074</v>
       </c>
@@ -4587,8 +4965,17 @@
       <c r="D89" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>0.59130000000000005</v>
+      </c>
+      <c r="F89">
+        <v>0.21659999999999999</v>
+      </c>
+      <c r="G89">
+        <v>0.19209999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <v>45077</v>
       </c>
@@ -4599,7 +4986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>45079</v>
       </c>
@@ -4610,7 +4997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
         <v>45079</v>
       </c>
@@ -4621,7 +5008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
         <v>45079</v>
       </c>
@@ -4632,7 +5019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
         <v>45080</v>
       </c>
@@ -4643,7 +5030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
         <v>45080</v>
       </c>
@@ -4654,7 +5041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
         <v>45080</v>
       </c>

--- a/RPS_J1_fivethirtyeight.xlsx
+++ b/RPS_J1_fivethirtyeight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008E23E-615F-B14D-BBDA-35ABB0D37744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1041BE-91AC-8C4E-A301-D52321981E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45325C-3FF3-8640-942E-A0432CD44893}">
   <dimension ref="B1:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81:G89"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F99" sqref="E90:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="L2">
         <f>AVERAGE(J2:J1000)</f>
-        <v>0.22488817930379745</v>
+        <v>0.21539148051136364</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="30"/>
+        <f>IF(H77=I77,1,0)</f>
         <v>1</v>
       </c>
       <c r="P77">
@@ -4795,7 +4795,7 @@
         <v>0.11628005000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
         <v>45072</v>
       </c>
@@ -4814,8 +4814,42 @@
       <c r="G81">
         <v>0.42509999999999998</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <f t="shared" ref="J81:J89" si="35">S81*(1/2)</f>
+        <v>0.22545950499999998</v>
+      </c>
+      <c r="N81">
+        <f t="shared" ref="N81:N89" si="36">IF(H81&gt;I81,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" ref="O81:O89" si="37">IF(H81=I81,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" ref="P81:P89" si="38">IF(H81&lt;I81,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" ref="Q81:Q89" si="39">(E81-N81)^2</f>
+        <v>0.12040899999999999</v>
+      </c>
+      <c r="R81">
+        <f t="shared" ref="R81:R89" si="40">((E81+F81)-(N81+O81))^2+Q81</f>
+        <v>0.45091900999999995</v>
+      </c>
+      <c r="S81">
+        <f t="shared" ref="S81:S89" si="41">((E81+F81+G81)-(N81+O81+P81))^2+R81</f>
+        <v>0.45091900999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
         <v>45072</v>
       </c>
@@ -4834,8 +4868,42 @@
       <c r="G82">
         <v>0.1439</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="35"/>
+        <v>6.6950485000000004E-2</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="39"/>
+        <v>0.11316496000000002</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="40"/>
+        <v>0.13390096000000001</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="41"/>
+        <v>0.13390097000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
         <v>45072</v>
       </c>
@@ -4854,8 +4922,42 @@
       <c r="G83">
         <v>0.1908</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="35"/>
+        <v>0.10192464</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="39"/>
+        <v>0.16744464000000001</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="40"/>
+        <v>0.20384927999999999</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="41"/>
+        <v>0.20384927999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
         <v>45073</v>
       </c>
@@ -4874,8 +4976,42 @@
       <c r="G84">
         <v>0.49299999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="35"/>
+        <v>0.152799505</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="39"/>
+        <v>6.2550009999999989E-2</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="40"/>
+        <v>0.30559901</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="41"/>
+        <v>0.30559901</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
         <v>45073</v>
       </c>
@@ -4894,8 +5030,42 @@
       <c r="G85">
         <v>0.59160000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="35"/>
+        <v>9.898905999999999E-2</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="39"/>
+        <v>3.1187560000000003E-2</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="40"/>
+        <v>0.19797811999999998</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="41"/>
+        <v>0.19797811999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
         <v>45073</v>
       </c>
@@ -4914,8 +5084,42 @@
       <c r="G86">
         <v>0.12889999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="35"/>
+        <v>5.8520409999999988E-2</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="39"/>
+        <v>0.10042560999999997</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="40"/>
+        <v>0.11704081999999998</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="41"/>
+        <v>0.11704081999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
         <v>45073</v>
       </c>
@@ -4934,8 +5138,42 @@
       <c r="G87">
         <v>0.33879999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="35"/>
+        <v>0.30109194</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="39"/>
+        <v>0.16499844</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="40"/>
+        <v>0.60218388</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="41"/>
+        <v>0.60218388</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
         <v>45073</v>
       </c>
@@ -4954,8 +5192,42 @@
       <c r="G88">
         <v>0.15670000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="35"/>
+        <v>8.0579525000000027E-2</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="39"/>
+        <v>0.13660416000000003</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="40"/>
+        <v>0.16115905000000005</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="41"/>
+        <v>0.16115905000000005</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
         <v>45074</v>
       </c>
@@ -4974,8 +5246,42 @@
       <c r="G89">
         <v>0.19209999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="35"/>
+        <v>0.10196904999999996</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="39"/>
+        <v>0.16703568999999996</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="40"/>
+        <v>0.20393809999999993</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="41"/>
+        <v>0.20393809999999993</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <v>45077</v>
       </c>
@@ -4985,8 +5291,17 @@
       <c r="D90" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="F90">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="G90">
+        <v>0.2651</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>45079</v>
       </c>
@@ -4996,8 +5311,17 @@
       <c r="D91" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>0.5464</v>
+      </c>
+      <c r="F91">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="G91">
+        <v>0.2389</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
         <v>45079</v>
       </c>
@@ -5007,8 +5331,17 @@
       <c r="D92" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="F92">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="G92">
+        <v>0.29820000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
         <v>45079</v>
       </c>
@@ -5018,8 +5351,17 @@
       <c r="D93" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F93">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="G93">
+        <v>0.59150000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
         <v>45080</v>
       </c>
@@ -5029,8 +5371,17 @@
       <c r="D94" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="F94">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="G94">
+        <v>0.2838</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
         <v>45080</v>
       </c>
@@ -5040,8 +5391,17 @@
       <c r="D95" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="F95">
+        <v>0.26619999999999999</v>
+      </c>
+      <c r="G95">
+        <v>0.30320000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
         <v>45080</v>
       </c>
@@ -5051,8 +5411,17 @@
       <c r="D96" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="F96">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="G96">
+        <v>0.4859</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
         <v>45080</v>
       </c>
@@ -5062,8 +5431,17 @@
       <c r="D97" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="F97">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.47310000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
         <v>45080</v>
       </c>
@@ -5073,8 +5451,17 @@
       <c r="D98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="F98">
+        <v>0.2288</v>
+      </c>
+      <c r="G98">
+        <v>0.1668</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
         <v>45081</v>
       </c>
@@ -5084,8 +5471,17 @@
       <c r="D99" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="F99">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="G99">
+        <v>0.27739999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
         <v>45087</v>
       </c>
@@ -5096,7 +5492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>45087</v>
       </c>
@@ -5107,7 +5503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
         <v>45087</v>
       </c>
@@ -5118,7 +5514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
         <v>45087</v>
       </c>
@@ -5129,7 +5525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
         <v>45088</v>
       </c>
@@ -5140,7 +5536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
         <v>45088</v>
       </c>
@@ -5151,7 +5547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
         <v>45088</v>
       </c>
@@ -5162,7 +5558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
         <v>45088</v>
       </c>
@@ -5173,7 +5569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
         <v>45088</v>
       </c>
@@ -5184,7 +5580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
         <v>45100</v>
       </c>
@@ -5195,7 +5591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
         <v>45101</v>
       </c>
@@ -5206,7 +5602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
         <v>45101</v>
       </c>
@@ -5217,7 +5613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
         <v>45101</v>
       </c>

--- a/RPS_J1_fivethirtyeight.xlsx
+++ b/RPS_J1_fivethirtyeight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1041BE-91AC-8C4E-A301-D52321981E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C80DA3-0F64-9D4C-8850-FE786E70A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45325C-3FF3-8640-942E-A0432CD44893}">
-  <dimension ref="B1:S262"/>
+  <dimension ref="B1:S261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F99" sqref="E90:F99"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,8 +555,8 @@
         <v>0.10161852499999999</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(J2:J1000)</f>
-        <v>0.21539148051136364</v>
+        <f>AVERAGE(J2:J999)</f>
+        <v>0.21445531474226801</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -5300,25 +5300,93 @@
       <c r="G90">
         <v>0.2651</v>
       </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <f t="shared" ref="J90:J98" si="42">S90*(1/2)</f>
+        <v>0.16842184999999998</v>
+      </c>
+      <c r="N90">
+        <f t="shared" ref="N90:N98" si="43">IF(H90&gt;I90,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <f t="shared" ref="O90:O98" si="44">IF(H90=I90,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <f t="shared" ref="P90:P98" si="45">IF(H90&lt;I90,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" ref="Q90:Q98" si="46">(E90-N90)^2</f>
+        <v>0.26656568999999997</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ref="R90:R98" si="47">((E90+F90)-(N90+O90))^2+Q90</f>
+        <v>0.33684369999999997</v>
+      </c>
+      <c r="S90">
+        <f t="shared" ref="S90:S98" si="48">((E90+F90+G90)-(N90+O90+P90))^2+R90</f>
+        <v>0.33684369999999997</v>
+      </c>
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>45079</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E91">
-        <v>0.5464</v>
+        <v>0.45140000000000002</v>
       </c>
       <c r="F91">
-        <v>0.21479999999999999</v>
+        <v>0.25030000000000002</v>
       </c>
       <c r="G91">
-        <v>0.2389</v>
+        <v>0.29820000000000002</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="42"/>
+        <v>0.34807243000000004</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="46"/>
+        <v>0.20376196000000002</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="47"/>
+        <v>0.69614485000000004</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="48"/>
+        <v>0.69614486000000009</v>
       </c>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.2">
@@ -5326,39 +5394,107 @@
         <v>45079</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E92">
-        <v>0.45140000000000002</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="F92">
-        <v>0.25030000000000002</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="G92">
-        <v>0.29820000000000002</v>
+        <v>0.59150000000000003</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="42"/>
+        <v>0.19746728499999999</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="46"/>
+        <v>4.4943999999999998E-2</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="47"/>
+        <v>0.39493455999999999</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="48"/>
+        <v>0.39493456999999998</v>
       </c>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E93">
-        <v>0.21199999999999999</v>
+        <v>0.43120000000000003</v>
       </c>
       <c r="F93">
-        <v>0.19639999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="G93">
-        <v>0.59150000000000003</v>
+        <v>0.2838</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="42"/>
+        <v>0.20203794</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="46"/>
+        <v>0.32353343999999995</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="47"/>
+        <v>0.40407588</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="48"/>
+        <v>0.40407588</v>
       </c>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.2">
@@ -5366,19 +5502,53 @@
         <v>45080</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E94">
-        <v>0.43120000000000003</v>
+        <v>0.43059999999999998</v>
       </c>
       <c r="F94">
-        <v>0.28499999999999998</v>
+        <v>0.26619999999999999</v>
       </c>
       <c r="G94">
-        <v>0.2838</v>
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="42"/>
+        <v>0.33547329999999997</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="46"/>
+        <v>0.18541635999999997</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="47"/>
+        <v>0.67094659999999995</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="48"/>
+        <v>0.67094659999999995</v>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.2">
@@ -5386,19 +5556,53 @@
         <v>45080</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E95">
-        <v>0.43059999999999998</v>
+        <v>0.26640000000000003</v>
       </c>
       <c r="F95">
-        <v>0.26619999999999999</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="G95">
-        <v>0.30320000000000003</v>
+        <v>0.4859</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="42"/>
+        <v>0.167582485</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="46"/>
+        <v>7.0968960000000011E-2</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="47"/>
+        <v>0.33516496000000001</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="48"/>
+        <v>0.33516497000000001</v>
       </c>
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.2">
@@ -5406,222 +5610,396 @@
         <v>45080</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>0.26640000000000003</v>
+        <v>0.30719999999999997</v>
       </c>
       <c r="F96">
-        <v>0.24759999999999999</v>
+        <v>0.21970000000000001</v>
       </c>
       <c r="G96">
-        <v>0.4859</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="42"/>
+        <v>0.18599772499999995</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="46"/>
+        <v>9.4371839999999985E-2</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="47"/>
+        <v>0.37199544999999989</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="48"/>
+        <v>0.37199544999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
         <v>45080</v>
       </c>
       <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97">
+        <v>0.60440000000000005</v>
+      </c>
+      <c r="F97">
+        <v>0.2288</v>
+      </c>
+      <c r="G97">
+        <v>0.1668</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="42"/>
+        <v>9.2160799999999959E-2</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="46"/>
+        <v>0.15649935999999995</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="47"/>
+        <v>0.18432159999999992</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="48"/>
+        <v>0.18432159999999992</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B98" s="2">
+        <v>45081</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="F98">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="G98">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="42"/>
+        <v>0.15050142999999999</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="46"/>
+        <v>0.22410755999999998</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="47"/>
+        <v>0.30100284999999999</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="48"/>
+        <v>0.30100285999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B99" s="2">
+        <v>45087</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
         <v>10</v>
       </c>
-      <c r="D97" t="s">
-        <v>26</v>
-      </c>
-      <c r="E97">
-        <v>0.30719999999999997</v>
-      </c>
-      <c r="F97">
-        <v>0.21970000000000001</v>
-      </c>
-      <c r="G97">
-        <v>0.47310000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" s="2">
-        <v>45080</v>
-      </c>
-      <c r="C98" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" t="s">
-        <v>16</v>
-      </c>
-      <c r="E98">
-        <v>0.60440000000000005</v>
-      </c>
-      <c r="F98">
-        <v>0.2288</v>
-      </c>
-      <c r="G98">
-        <v>0.1668</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" s="2">
-        <v>45081</v>
-      </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s">
-        <v>20</v>
-      </c>
       <c r="E99">
-        <v>0.47339999999999999</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="F99">
-        <v>0.24929999999999999</v>
+        <v>0.15920000000000001</v>
       </c>
       <c r="G99">
-        <v>0.27739999999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
         <v>45087</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="E100">
+        <v>0.3785</v>
+      </c>
+      <c r="F100">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="G100">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>45087</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>0.2296</v>
+      </c>
+      <c r="F101">
+        <v>0.2351</v>
+      </c>
+      <c r="G101">
+        <v>0.5353</v>
+      </c>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
         <v>45087</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E102">
+        <v>0.37280000000000002</v>
+      </c>
+      <c r="F102">
+        <v>0.25840000000000002</v>
+      </c>
+      <c r="G102">
+        <v>0.36880000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="E103">
+        <v>0.626</v>
+      </c>
+      <c r="F103">
+        <v>0.2397</v>
+      </c>
+      <c r="G103">
+        <v>0.13420000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
         <v>45088</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="E104">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="F104">
+        <v>0.2162</v>
+      </c>
+      <c r="G104">
+        <v>0.1724</v>
+      </c>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
         <v>45088</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="F105">
+        <v>0.2278</v>
+      </c>
+      <c r="G105">
+        <v>0.45879999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
         <v>45088</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>0.1171</v>
+      </c>
+      <c r="F106">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="G106">
+        <v>0.69769999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
         <v>45088</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="E107">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F107">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="G107">
+        <v>0.34970000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
         <v>45101</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
         <v>45101</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
         <v>45101</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
@@ -5629,10 +6007,10 @@
         <v>45101</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
@@ -5640,10 +6018,10 @@
         <v>45101</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
@@ -5651,54 +6029,54 @@
         <v>45101</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="2">
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
@@ -5706,10 +6084,10 @@
         <v>45108</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
@@ -5717,10 +6095,10 @@
         <v>45108</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
@@ -5728,10 +6106,10 @@
         <v>45108</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
@@ -5739,10 +6117,10 @@
         <v>45108</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
@@ -5750,10 +6128,10 @@
         <v>45108</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
@@ -5761,43 +6139,43 @@
         <v>45108</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="2">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="2">
-        <v>45109</v>
+        <v>45114</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="2">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
@@ -5805,10 +6183,10 @@
         <v>45115</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
@@ -5816,10 +6194,10 @@
         <v>45115</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
@@ -5827,10 +6205,10 @@
         <v>45115</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
@@ -5838,10 +6216,10 @@
         <v>45115</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
@@ -5849,10 +6227,10 @@
         <v>45115</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
@@ -5860,10 +6238,10 @@
         <v>45115</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
@@ -5871,43 +6249,43 @@
         <v>45115</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D135" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="2">
-        <v>45115</v>
+        <v>45121</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D136" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="C137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
@@ -5915,10 +6293,10 @@
         <v>45123</v>
       </c>
       <c r="C139" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
@@ -5926,10 +6304,10 @@
         <v>45123</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
@@ -5937,10 +6315,10 @@
         <v>45123</v>
       </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
@@ -5948,10 +6326,10 @@
         <v>45123</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
@@ -5959,10 +6337,10 @@
         <v>45123</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
@@ -5970,21 +6348,21 @@
         <v>45123</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
-        <v>45123</v>
+        <v>45143</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
@@ -5992,21 +6370,21 @@
         <v>45143</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="2">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
@@ -6014,10 +6392,10 @@
         <v>45144</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
@@ -6025,10 +6403,10 @@
         <v>45144</v>
       </c>
       <c r="C149" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
@@ -6036,10 +6414,10 @@
         <v>45144</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
@@ -6047,10 +6425,10 @@
         <v>45144</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
@@ -6058,10 +6436,10 @@
         <v>45144</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
@@ -6069,32 +6447,32 @@
         <v>45144</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" s="2">
-        <v>45144</v>
+        <v>45149</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="2">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="C155" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
@@ -6102,10 +6480,10 @@
         <v>45150</v>
       </c>
       <c r="C156" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
@@ -6113,10 +6491,10 @@
         <v>45150</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
@@ -6124,10 +6502,10 @@
         <v>45150</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
@@ -6135,10 +6513,10 @@
         <v>45150</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
@@ -6146,21 +6524,21 @@
         <v>45150</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="2">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D161" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
@@ -6168,32 +6546,32 @@
         <v>45151</v>
       </c>
       <c r="C162" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="2">
-        <v>45151</v>
+        <v>45156</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="2">
-        <v>45156</v>
+        <v>45157</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
@@ -6201,10 +6579,10 @@
         <v>45157</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
@@ -6212,10 +6590,10 @@
         <v>45157</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
@@ -6223,10 +6601,10 @@
         <v>45157</v>
       </c>
       <c r="C167" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
@@ -6234,10 +6612,10 @@
         <v>45157</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D168" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
@@ -6245,10 +6623,10 @@
         <v>45157</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
@@ -6256,43 +6634,43 @@
         <v>45157</v>
       </c>
       <c r="C170" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
-        <v>45157</v>
+        <v>45158</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2">
-        <v>45158</v>
+        <v>45163</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="2">
-        <v>45163</v>
+        <v>45164</v>
       </c>
       <c r="C173" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
@@ -6300,10 +6678,10 @@
         <v>45164</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
@@ -6311,10 +6689,10 @@
         <v>45164</v>
       </c>
       <c r="C175" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
@@ -6322,10 +6700,10 @@
         <v>45164</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
@@ -6333,10 +6711,10 @@
         <v>45164</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
@@ -6344,10 +6722,10 @@
         <v>45164</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
@@ -6355,10 +6733,10 @@
         <v>45164</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
@@ -6366,21 +6744,21 @@
         <v>45164</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
-        <v>45164</v>
+        <v>45171</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
@@ -6388,10 +6766,10 @@
         <v>45171</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D182" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
@@ -6399,10 +6777,10 @@
         <v>45171</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D183" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
@@ -6410,10 +6788,10 @@
         <v>45171</v>
       </c>
       <c r="C184" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
@@ -6421,10 +6799,10 @@
         <v>45171</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
@@ -6432,10 +6810,10 @@
         <v>45171</v>
       </c>
       <c r="C186" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
@@ -6443,10 +6821,10 @@
         <v>45171</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
@@ -6454,10 +6832,10 @@
         <v>45171</v>
       </c>
       <c r="C188" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D188" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
@@ -6465,21 +6843,21 @@
         <v>45171</v>
       </c>
       <c r="C189" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" s="2">
-        <v>45171</v>
+        <v>45185</v>
       </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
@@ -6487,10 +6865,10 @@
         <v>45185</v>
       </c>
       <c r="C191" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
@@ -6498,10 +6876,10 @@
         <v>45185</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D192" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
@@ -6509,10 +6887,10 @@
         <v>45185</v>
       </c>
       <c r="C193" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
@@ -6520,10 +6898,10 @@
         <v>45185</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
@@ -6531,10 +6909,10 @@
         <v>45185</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
@@ -6542,10 +6920,10 @@
         <v>45185</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
@@ -6553,10 +6931,10 @@
         <v>45185</v>
       </c>
       <c r="C197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
@@ -6564,21 +6942,21 @@
         <v>45185</v>
       </c>
       <c r="C198" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="2">
-        <v>45185</v>
+        <v>45192</v>
       </c>
       <c r="C199" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
@@ -6586,10 +6964,10 @@
         <v>45192</v>
       </c>
       <c r="C200" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
@@ -6597,10 +6975,10 @@
         <v>45192</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
@@ -6608,10 +6986,10 @@
         <v>45192</v>
       </c>
       <c r="C202" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
@@ -6619,10 +6997,10 @@
         <v>45192</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
@@ -6630,10 +7008,10 @@
         <v>45192</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
@@ -6641,10 +7019,10 @@
         <v>45192</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
@@ -6652,10 +7030,10 @@
         <v>45192</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
@@ -6663,21 +7041,21 @@
         <v>45192</v>
       </c>
       <c r="C207" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="2">
-        <v>45192</v>
+        <v>45199</v>
       </c>
       <c r="C208" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D208" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
@@ -6685,10 +7063,10 @@
         <v>45199</v>
       </c>
       <c r="C209" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D209" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
@@ -6696,10 +7074,10 @@
         <v>45199</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D210" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
@@ -6707,10 +7085,10 @@
         <v>45199</v>
       </c>
       <c r="C211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
@@ -6718,10 +7096,10 @@
         <v>45199</v>
       </c>
       <c r="C212" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
@@ -6729,10 +7107,10 @@
         <v>45199</v>
       </c>
       <c r="C213" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
@@ -6740,10 +7118,10 @@
         <v>45199</v>
       </c>
       <c r="C214" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
@@ -6751,10 +7129,10 @@
         <v>45199</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
@@ -6762,21 +7140,21 @@
         <v>45199</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B217" s="2">
-        <v>45199</v>
+        <v>45220</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D217" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
@@ -6784,10 +7162,10 @@
         <v>45220</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D218" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
@@ -6795,10 +7173,10 @@
         <v>45220</v>
       </c>
       <c r="C219" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D219" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
@@ -6806,10 +7184,10 @@
         <v>45220</v>
       </c>
       <c r="C220" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D220" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
@@ -6817,10 +7195,10 @@
         <v>45220</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
@@ -6828,10 +7206,10 @@
         <v>45220</v>
       </c>
       <c r="C222" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D222" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
@@ -6839,10 +7217,10 @@
         <v>45220</v>
       </c>
       <c r="C223" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D223" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
@@ -6850,10 +7228,10 @@
         <v>45220</v>
       </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
@@ -6861,32 +7239,32 @@
         <v>45220</v>
       </c>
       <c r="C225" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="2">
-        <v>45220</v>
+        <v>45226</v>
       </c>
       <c r="C226" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D226" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" s="2">
-        <v>45226</v>
+        <v>45227</v>
       </c>
       <c r="C227" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
@@ -6894,10 +7272,10 @@
         <v>45227</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
@@ -6905,10 +7283,10 @@
         <v>45227</v>
       </c>
       <c r="C229" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
@@ -6916,10 +7294,10 @@
         <v>45227</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
@@ -6927,10 +7305,10 @@
         <v>45227</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D231" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
@@ -6938,10 +7316,10 @@
         <v>45227</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D232" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
@@ -6949,10 +7327,10 @@
         <v>45227</v>
       </c>
       <c r="C233" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
@@ -6960,21 +7338,21 @@
         <v>45227</v>
       </c>
       <c r="C234" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D234" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B235" s="2">
-        <v>45227</v>
+        <v>45241</v>
       </c>
       <c r="C235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
@@ -6982,10 +7360,10 @@
         <v>45241</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D236" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
@@ -6993,10 +7371,10 @@
         <v>45241</v>
       </c>
       <c r="C237" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D237" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
@@ -7004,10 +7382,10 @@
         <v>45241</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D238" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
@@ -7015,10 +7393,10 @@
         <v>45241</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D239" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
@@ -7026,10 +7404,10 @@
         <v>45241</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
@@ -7037,10 +7415,10 @@
         <v>45241</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D241" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
@@ -7048,10 +7426,10 @@
         <v>45241</v>
       </c>
       <c r="C242" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D242" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
@@ -7059,21 +7437,21 @@
         <v>45241</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D243" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B244" s="2">
-        <v>45241</v>
+        <v>45255</v>
       </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
@@ -7081,10 +7459,10 @@
         <v>45255</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
@@ -7092,10 +7470,10 @@
         <v>45255</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D246" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
@@ -7103,10 +7481,10 @@
         <v>45255</v>
       </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
@@ -7114,10 +7492,10 @@
         <v>45255</v>
       </c>
       <c r="C248" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
@@ -7125,10 +7503,10 @@
         <v>45255</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
@@ -7136,10 +7514,10 @@
         <v>45255</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D250" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
@@ -7147,10 +7525,10 @@
         <v>45255</v>
       </c>
       <c r="C251" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
@@ -7158,21 +7536,21 @@
         <v>45255</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D252" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253" s="2">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="C253" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D253" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
@@ -7180,10 +7558,10 @@
         <v>45262</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D254" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
@@ -7191,10 +7569,10 @@
         <v>45262</v>
       </c>
       <c r="C255" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D255" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
@@ -7202,10 +7580,10 @@
         <v>45262</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D256" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
@@ -7213,10 +7591,10 @@
         <v>45262</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
@@ -7224,10 +7602,10 @@
         <v>45262</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
@@ -7235,10 +7613,10 @@
         <v>45262</v>
       </c>
       <c r="C259" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
@@ -7246,10 +7624,10 @@
         <v>45262</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D260" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
@@ -7257,20 +7635,9 @@
         <v>45262</v>
       </c>
       <c r="C261" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D261" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B262" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C262" t="s">
-        <v>14</v>
-      </c>
-      <c r="D262" t="s">
         <v>24</v>
       </c>
     </row>

--- a/RPS_J1_fivethirtyeight.xlsx
+++ b/RPS_J1_fivethirtyeight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C80DA3-0F64-9D4C-8850-FE786E70A9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA14C9-E0EE-924B-8103-7697EE8124DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="28">
   <si>
     <t>date</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45325C-3FF3-8640-942E-A0432CD44893}">
-  <dimension ref="B1:S261"/>
+  <dimension ref="B1:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="L2">
         <f>AVERAGE(J2:J999)</f>
-        <v>0.21445531474226801</v>
+        <v>0.22254051270833328</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -5786,6 +5786,40 @@
       <c r="G99">
         <v>0.1056</v>
       </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ref="J99:J145" si="49">S99*(1/2)</f>
+        <v>4.063520000000001E-2</v>
+      </c>
+      <c r="N99">
+        <f t="shared" ref="N99:N145" si="50">IF(H99&gt;I99,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <f t="shared" ref="O99:O145" si="51">IF(H99=I99,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ref="P99:P145" si="52">IF(H99&lt;I99,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" ref="Q99:Q145" si="53">(E99-N99)^2</f>
+        <v>7.0119040000000021E-2</v>
+      </c>
+      <c r="R99">
+        <f t="shared" ref="R99:R145" si="54">((E99+F99)-(N99+O99))^2+Q99</f>
+        <v>8.127040000000002E-2</v>
+      </c>
+      <c r="S99">
+        <f t="shared" ref="S99:S145" si="55">((E99+F99+G99)-(N99+O99+P99))^2+R99</f>
+        <v>8.127040000000002E-2</v>
+      </c>
     </row>
     <row r="100" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
@@ -5806,6 +5840,40 @@
       <c r="G100">
         <v>0.40889999999999999</v>
       </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="49"/>
+        <v>0.15523073000000004</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="53"/>
+        <v>0.14326225000000001</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="54"/>
+        <v>0.31046146000000008</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="55"/>
+        <v>0.31046146000000008</v>
+      </c>
     </row>
     <row r="101" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
@@ -5826,6 +5894,40 @@
       <c r="G101">
         <v>0.5353</v>
       </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="49"/>
+        <v>0.44003112499999997</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="53"/>
+        <v>0.59351615999999996</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="54"/>
+        <v>0.88006224999999993</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="55"/>
+        <v>0.88006224999999993</v>
+      </c>
     </row>
     <row r="102" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
@@ -5846,6 +5948,40 @@
       <c r="G102">
         <v>0.36880000000000002</v>
       </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="49"/>
+        <v>0.26869663999999999</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="53"/>
+        <v>0.13897984000000002</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="54"/>
+        <v>0.53739327999999997</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="55"/>
+        <v>0.53739327999999997</v>
+      </c>
     </row>
     <row r="103" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
@@ -5866,6 +6002,40 @@
       <c r="G103">
         <v>0.13420000000000001</v>
       </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="49"/>
+        <v>7.8956249999999992E-2</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="53"/>
+        <v>0.139876</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="54"/>
+        <v>0.15791248999999999</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="55"/>
+        <v>0.15791249999999998</v>
+      </c>
     </row>
     <row r="104" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
@@ -5886,6 +6056,40 @@
       <c r="G104">
         <v>0.1724</v>
       </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="49"/>
+        <v>9.0365859999999965E-2</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="53"/>
+        <v>0.15100995999999997</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="54"/>
+        <v>0.18073171999999993</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="55"/>
+        <v>0.18073171999999993</v>
+      </c>
     </row>
     <row r="105" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
@@ -5906,6 +6110,40 @@
       <c r="G105">
         <v>0.45879999999999999</v>
       </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="49"/>
+        <v>0.34095849999999994</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="53"/>
+        <v>0.47141955999999996</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="54"/>
+        <v>0.68191699999999988</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="55"/>
+        <v>0.68191699999999988</v>
+      </c>
     </row>
     <row r="106" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
@@ -5926,6 +6164,40 @@
       <c r="G106">
         <v>0.69769999999999999</v>
       </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="49"/>
+        <v>0.25017908999999999</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="53"/>
+        <v>1.371241E-2</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="54"/>
+        <v>0.50035816999999994</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="55"/>
+        <v>0.50035817999999999</v>
+      </c>
     </row>
     <row r="107" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
@@ -5946,6 +6218,40 @@
       <c r="G107">
         <v>0.34970000000000001</v>
       </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="49"/>
+        <v>0.23108954499999998</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="53"/>
+        <v>0.33988899999999994</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="54"/>
+        <v>0.46217908999999996</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="55"/>
+        <v>0.46217908999999996</v>
+      </c>
     </row>
     <row r="108" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
@@ -5957,6 +6263,49 @@
       <c r="D108" t="s">
         <v>24</v>
       </c>
+      <c r="E108">
+        <v>0.3725</v>
+      </c>
+      <c r="F108">
+        <v>0.2122</v>
+      </c>
+      <c r="G108">
+        <v>0.4153</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>4</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="49"/>
+        <v>0.24031517000000002</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="53"/>
+        <v>0.13875625</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="54"/>
+        <v>0.48063034000000004</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="55"/>
+        <v>0.48063034000000004</v>
+      </c>
     </row>
     <row r="109" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
@@ -5968,6 +6317,49 @@
       <c r="D109" t="s">
         <v>14</v>
       </c>
+      <c r="E109">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="F109">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="G109">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="49"/>
+        <v>0.29829733500000005</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="53"/>
+        <v>0.43890625</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="54"/>
+        <v>0.59659466000000005</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="55"/>
+        <v>0.5965946700000001</v>
+      </c>
     </row>
     <row r="110" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
@@ -5979,6 +6371,49 @@
       <c r="D110" t="s">
         <v>20</v>
       </c>
+      <c r="E110">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="F110">
+        <v>0.2341</v>
+      </c>
+      <c r="G110">
+        <v>0.5131</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="49"/>
+        <v>0.41078972499999999</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="53"/>
+        <v>0.55830784</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="54"/>
+        <v>0.82157944999999999</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="55"/>
+        <v>0.82157944999999999</v>
+      </c>
     </row>
     <row r="111" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
@@ -5990,6 +6425,49 @@
       <c r="D111" t="s">
         <v>15</v>
       </c>
+      <c r="E111">
+        <v>0.2132</v>
+      </c>
+      <c r="F111">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="G111">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="49"/>
+        <v>0.46666329999999989</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="53"/>
+        <v>0.61905423999999987</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="54"/>
+        <v>0.93332659999999978</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="55"/>
+        <v>0.93332659999999978</v>
+      </c>
     </row>
     <row r="112" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
@@ -6001,8 +6479,51 @@
       <c r="D112" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E112">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="F112">
+        <v>0.2351</v>
+      </c>
+      <c r="G112">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="49"/>
+        <v>0.38026662500000002</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="53"/>
+        <v>0.23794884000000002</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="54"/>
+        <v>0.76053325000000005</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="55"/>
+        <v>0.76053325000000005</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
         <v>45101</v>
       </c>
@@ -6012,8 +6533,51 @@
       <c r="D113" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E113">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="F113">
+        <v>0.2495</v>
+      </c>
+      <c r="G113">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>6</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="49"/>
+        <v>0.39298848999999997</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="53"/>
+        <v>0.23970815999999998</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="54"/>
+        <v>0.78597696999999989</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="55"/>
+        <v>0.78597697999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B114" s="2">
         <v>45101</v>
       </c>
@@ -6023,8 +6587,51 @@
       <c r="D114" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E114">
+        <v>0.28620000000000001</v>
+      </c>
+      <c r="F114">
+        <v>0.2157</v>
+      </c>
+      <c r="G114">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="49"/>
+        <v>0.37880702499999996</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="53"/>
+        <v>0.50951044000000001</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="54"/>
+        <v>0.75761404999999993</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="55"/>
+        <v>0.75761404999999993</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B115" s="2">
         <v>45101</v>
       </c>
@@ -6034,8 +6641,51 @@
       <c r="D115" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E115">
+        <v>0.4713</v>
+      </c>
+      <c r="F115">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="G115">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="49"/>
+        <v>0.150233855</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="53"/>
+        <v>0.22212368999999998</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="54"/>
+        <v>0.3004677</v>
+      </c>
+      <c r="S115">
+        <f t="shared" si="55"/>
+        <v>0.30046771</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
         <v>45102</v>
       </c>
@@ -6045,8 +6695,51 @@
       <c r="D116" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E116">
+        <v>0.1487</v>
+      </c>
+      <c r="F116">
+        <v>0.2099</v>
+      </c>
+      <c r="G116">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="49"/>
+        <v>7.5352825000000012E-2</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="53"/>
+        <v>2.211169E-2</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="54"/>
+        <v>0.15070565000000002</v>
+      </c>
+      <c r="S116">
+        <f t="shared" si="55"/>
+        <v>0.15070565000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B117" s="2">
         <v>45105</v>
       </c>
@@ -6056,1589 +6749,3900 @@
       <c r="D117" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B118" s="2">
+      <c r="E117">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="F117">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="G117">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="H117">
+        <v>4</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="49"/>
+        <v>7.8921729999999995E-2</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="53"/>
+        <v>0.13608721000000001</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="54"/>
+        <v>0.15784345999999999</v>
+      </c>
+      <c r="S117">
+        <f t="shared" si="55"/>
+        <v>0.15784345999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B118" s="1">
         <v>45107</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B119" s="2">
+      <c r="E118" s="3">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0.2233</v>
+      </c>
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118" s="3">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="49"/>
+        <v>0.43566399000000006</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="53"/>
+        <v>0.26822041000000002</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="54"/>
+        <v>0.87132797000000006</v>
+      </c>
+      <c r="S118">
+        <f t="shared" si="55"/>
+        <v>0.87132798000000011</v>
+      </c>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B119" s="1">
         <v>45108</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120" s="2">
+      <c r="E119" s="3">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="F119" s="3">
+        <v>0.252</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="H119" s="3">
+        <v>2</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="49"/>
+        <v>0.25061625000000004</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="53"/>
+        <v>0.37271025000000008</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="54"/>
+        <v>0.50123250000000008</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="55"/>
+        <v>0.50123250000000008</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B120" s="1">
         <v>45108</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B121" s="2">
+      <c r="E120" s="3">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="F120" s="3">
+        <v>0.2228</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.55710000000000004</v>
+      </c>
+      <c r="H120" s="3">
+        <v>2</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="49"/>
+        <v>0.45930221000000004</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="53"/>
+        <v>0.60824401000000006</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="54"/>
+        <v>0.91860442000000009</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="55"/>
+        <v>0.91860442000000009</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B121" s="1">
         <v>45108</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" s="2">
+      <c r="E121" s="3">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="F121" s="3">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="49"/>
+        <v>0.186728645</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="53"/>
+        <v>0.33930625000000003</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="54"/>
+        <v>0.37345729</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="55"/>
+        <v>0.37345729</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B122" s="1">
         <v>45108</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="2">
+      <c r="E122" s="3">
+        <v>0.2979</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0.24079999999999999</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0.46129999999999999</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="49"/>
+        <v>0.15077105000000002</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="53"/>
+        <v>8.8744409999999996E-2</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="54"/>
+        <v>0.30154210000000004</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="55"/>
+        <v>0.30154210000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B123" s="1">
         <v>45108</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.48380000000000001</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="49"/>
+        <v>0.17548446499999998</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="53"/>
+        <v>0.26646243999999997</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="54"/>
+        <v>0.35096892999999996</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="55"/>
+        <v>0.35096892999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B124" s="1">
+        <v>45108</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.58560000000000001</v>
+      </c>
+      <c r="F124" s="3">
+        <v>0.18190000000000001</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="H124" s="3">
+        <v>1</v>
+      </c>
+      <c r="I124" s="3">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="49"/>
+        <v>0.19849180499999999</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="53"/>
+        <v>0.34292736000000001</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="54"/>
+        <v>0.39698360999999999</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="55"/>
+        <v>0.39698360999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B125" s="1">
+        <v>45108</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D125" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="E125" s="3">
+        <v>0.2626</v>
+      </c>
+      <c r="F125" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="H125" s="3">
+        <v>1</v>
+      </c>
+      <c r="I125" s="3">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="49"/>
+        <v>0.17737796499999997</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="53"/>
+        <v>6.8958759999999994E-2</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="54"/>
+        <v>0.35475591999999995</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="55"/>
+        <v>0.35475592999999994</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B126" s="1">
+        <v>45109</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0.1701</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0.1419</v>
+      </c>
+      <c r="H126" s="3">
+        <v>4</v>
+      </c>
+      <c r="I126" s="3">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="49"/>
+        <v>5.873980500000002E-2</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="53"/>
+        <v>9.7344000000000028E-2</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="54"/>
+        <v>0.11747961000000004</v>
+      </c>
+      <c r="S126">
+        <f t="shared" si="55"/>
+        <v>0.11747961000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B127" s="1">
+        <v>45114</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E127" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="3">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="49"/>
+        <v>6.8336499999999994E-2</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="53"/>
+        <v>2.3104E-2</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="54"/>
+        <v>0.13667299999999999</v>
+      </c>
+      <c r="S127">
+        <f t="shared" si="55"/>
+        <v>0.13667299999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B128" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="F128" s="3">
+        <v>0.2319</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="H128" s="3">
+        <v>2</v>
+      </c>
+      <c r="I128" s="3">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="49"/>
+        <v>0.14923746499999999</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="53"/>
+        <v>0.11716929</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="54"/>
+        <v>0.29847492999999997</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="55"/>
+        <v>0.29847492999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B129" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.37109999999999999</v>
+      </c>
+      <c r="F129" s="3">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="49"/>
+        <v>0.13701192499999998</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="53"/>
+        <v>0.13771520999999998</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="54"/>
+        <v>0.27402384999999996</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="55"/>
+        <v>0.27402384999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B130" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="3">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F130" s="3">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0.32469999999999999</v>
+      </c>
+      <c r="H130" s="3">
+        <v>1</v>
+      </c>
+      <c r="I130" s="3">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="49"/>
+        <v>0.143453045</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="53"/>
+        <v>0.181476</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="54"/>
+        <v>0.28690609</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="55"/>
+        <v>0.28690609</v>
+      </c>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B131" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0.4007</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="H131" s="3">
+        <v>1</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="49"/>
+        <v>0.24062042499999994</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" si="53"/>
+        <v>0.35916048999999994</v>
+      </c>
+      <c r="R131">
+        <f t="shared" si="54"/>
+        <v>0.48124084999999989</v>
+      </c>
+      <c r="S131">
+        <f t="shared" si="55"/>
+        <v>0.48124084999999989</v>
+      </c>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B132" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="E132" s="3">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="F132" s="3">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="H132" s="3">
+        <v>2</v>
+      </c>
+      <c r="I132" s="3">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="49"/>
+        <v>0.33036990499999996</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="53"/>
+        <v>0.45225624999999997</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="54"/>
+        <v>0.66073980999999993</v>
+      </c>
+      <c r="S132">
+        <f t="shared" si="55"/>
+        <v>0.66073980999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B133" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E133" s="3">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F133" s="3">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="49"/>
+        <v>0.17920274500000002</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="53"/>
+        <v>0.31248100000000006</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="54"/>
+        <v>0.35840549000000005</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="55"/>
+        <v>0.35840549000000005</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B134" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="3">
+        <v>0.72170000000000001</v>
+      </c>
+      <c r="F134" s="3">
+        <v>0.1676</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="H134" s="3">
+        <v>3</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="49"/>
+        <v>4.4852690000000001E-2</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="53"/>
+        <v>7.7450889999999994E-2</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="54"/>
+        <v>8.9705380000000001E-2</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="55"/>
+        <v>8.9705380000000001E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B135" s="1">
+        <v>45115</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="3">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="F135" s="3">
+        <v>0.2712</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="H135" s="3">
+        <v>2</v>
+      </c>
+      <c r="I135" s="3">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="49"/>
+        <v>0.29590559999999999</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="53"/>
+        <v>0.43877376000000001</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="54"/>
+        <v>0.59181119999999998</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="55"/>
+        <v>0.59181119999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B136" s="1">
+        <v>45121</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.6038</v>
+      </c>
+      <c r="F136" s="3">
+        <v>0.17910000000000001</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136" s="3">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="49"/>
+        <v>0.48875342500000007</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="53"/>
+        <v>0.36457444</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="54"/>
+        <v>0.97750685000000015</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="55"/>
+        <v>0.97750685000000015</v>
+      </c>
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B137" s="1">
+        <v>45122</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="3">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="F137" s="3">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="3">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="49"/>
+        <v>0.35240185000000007</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="53"/>
+        <v>0.23049601000000003</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="54"/>
+        <v>0.70480370000000014</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="55"/>
+        <v>0.70480370000000014</v>
+      </c>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B138" s="1">
+        <v>45123</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F138" s="3">
+        <v>0.19470000000000001</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0.1313</v>
+      </c>
+      <c r="H138" s="3">
+        <v>1</v>
+      </c>
+      <c r="I138" s="3">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="49"/>
+        <v>0.23575784500000002</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="53"/>
+        <v>0.45427600000000007</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="54"/>
+        <v>0.47151569000000004</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="55"/>
+        <v>0.47151569000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B139" s="1">
+        <v>45123</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="3">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="F139" s="3">
+        <v>0.2712</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="3">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="49"/>
+        <v>0.27361440000000004</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="53"/>
+        <v>0.13660415999999997</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="54"/>
+        <v>0.54722880000000007</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="55"/>
+        <v>0.54722880000000007</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B140" s="1">
+        <v>45123</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="3">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="F140" s="3">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="H140" s="3">
+        <v>2</v>
+      </c>
+      <c r="I140" s="3">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="49"/>
+        <v>0.10805132500000003</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="53"/>
+        <v>0.17799961000000006</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="54"/>
+        <v>0.21610265000000006</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="55"/>
+        <v>0.21610265000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B141" s="1">
+        <v>45123</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="3">
+        <v>0.2414</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0.50319999999999998</v>
+      </c>
+      <c r="H141" s="3">
+        <v>2</v>
+      </c>
+      <c r="I141" s="3">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="49"/>
+        <v>0.41434209999999994</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="53"/>
+        <v>0.57547395999999995</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="54"/>
+        <v>0.82868419999999987</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="55"/>
+        <v>0.82868419999999987</v>
+      </c>
+    </row>
+    <row r="142" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B142" s="1">
+        <v>45123</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B126" s="2">
-        <v>45109</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="E142" s="3">
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0.2412</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="H142" s="3">
+        <v>3</v>
+      </c>
+      <c r="I142" s="3">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="49"/>
+        <v>0.24552071999999997</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="53"/>
+        <v>0.36144143999999995</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="54"/>
+        <v>0.49104143999999994</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="55"/>
+        <v>0.49104143999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B143" s="1">
+        <v>45123</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="F143" s="3">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0.4073</v>
+      </c>
+      <c r="H143" s="3">
+        <v>2</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="49"/>
+        <v>0.31509962499999999</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="53"/>
+        <v>0.46430596000000002</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="54"/>
+        <v>0.63019924999999999</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="55"/>
+        <v>0.63019924999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B144" s="1">
+        <v>45123</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="3">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="F144" s="3">
+        <v>0.2354</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
+      <c r="I144" s="3">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="49"/>
+        <v>0.19134697999999994</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="53"/>
+        <v>9.2172959999999984E-2</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="54"/>
+        <v>0.38269395999999989</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="55"/>
+        <v>0.38269395999999989</v>
+      </c>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B145" s="1">
+        <v>45129</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" s="3">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="F145" s="3">
+        <v>0.22170000000000001</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0.2611</v>
+      </c>
+      <c r="H145" s="3">
+        <v>2</v>
+      </c>
+      <c r="I145" s="3">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="49"/>
+        <v>0.16783452499999998</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="53"/>
+        <v>0.26749583999999998</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="54"/>
+        <v>0.33566904999999997</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="55"/>
+        <v>0.33566904999999997</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B146" s="1">
+        <v>45143</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="3">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="F146" s="3">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0.50580000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B147" s="1">
+        <v>45143</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="3">
+        <v>0.6361</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0.15290000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B148" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="3">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="F148" s="3">
+        <v>0.20469999999999999</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0.28860000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B149" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="3">
+        <v>0.1162</v>
+      </c>
+      <c r="F149" s="3">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0.71350000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B150" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="3">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0.2717</v>
+      </c>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B151" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0.4783</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0.2346</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B152" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0.39929999999999999</v>
+      </c>
+      <c r="F152" s="3">
+        <v>0.25409999999999999</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0.34660000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B153" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E153" s="3">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F153" s="3">
+        <v>0.2361</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0.37690000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B154" s="1">
+        <v>45144</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F154" s="3">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0.18310000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B155" s="1">
+        <v>45149</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0.33529999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B156" s="1">
+        <v>45150</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B127" s="2">
-        <v>45114</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="E156" s="3">
+        <v>0.3649</v>
+      </c>
+      <c r="F156" s="3">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B157" s="1">
+        <v>45150</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0.47370000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B158" s="1">
+        <v>45150</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="3">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0.23169999999999999</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B159" s="1">
+        <v>45150</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="3">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0.2329</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0.28210000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B160" s="1">
+        <v>45150</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0.21709999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="1">
+        <v>45150</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0.1658</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0.1484</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="1">
+        <v>45151</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0.33689999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="1">
+        <v>45151</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0.2681</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="1">
+        <v>45156</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E164" s="3">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0.2722</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="1">
+        <v>45156</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0.43709999999999999</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0.2792</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0.28370000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="1">
+        <v>45157</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0.2389</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B167" s="1">
+        <v>45157</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B168" s="1">
+        <v>45157</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0.47889999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="1">
+        <v>45157</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128" s="2">
-        <v>45115</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="D169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0.65769999999999995</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0.19109999999999999</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" s="1">
+        <v>45157</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.24590000000000001</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0.33739999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="1">
+        <v>45157</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E171" s="3">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0.20580000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="1">
+        <v>45158</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="3">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0.2228</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0.59589999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" s="1">
+        <v>45163</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.1961</v>
+      </c>
+      <c r="F173" s="3">
+        <v>0.2394</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0.5645</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" s="1">
+        <v>45164</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0.2029</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0.15029999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" s="1">
+        <v>45164</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0.1502</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0.73480000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" s="1">
+        <v>45164</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0.4854</v>
+      </c>
+      <c r="F176" s="3">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B177" s="1">
+        <v>45164</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E177" s="3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F177" s="3">
+        <v>0.2389</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0.49020000000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B178" s="1">
+        <v>45164</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E178" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0.36509999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B179" s="1">
+        <v>45164</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0.24790000000000001</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0.2109</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0.54120000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B180" s="1">
+        <v>45164</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0.28449999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B181" s="1">
+        <v>45164</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B182" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B183" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="2">
-        <v>45115</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="E183" s="3">
+        <v>0.1951</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0.1867</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0.61819999999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B184" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="3">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0.29089999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B185" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" s="3">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0.1895</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0.26290000000000002</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B186" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0.24579999999999999</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0.39860000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B187" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0.2266</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0.53359999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B188" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E188" s="3">
+        <v>0.32940000000000003</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0.40679999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B189" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0.68869999999999998</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0.19670000000000001</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0.11459999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B190" s="1">
+        <v>45171</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="3">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="F190" s="3">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0.14610000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B191" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="3">
+        <v>0.2873</v>
+      </c>
+      <c r="F191" s="3">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0.46929999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B192" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0.59189999999999998</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0.2029</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B193" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="3">
+        <v>0.61460000000000004</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0.2301</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0.15540000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="3">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0.24079999999999999</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" s="3">
+        <v>0.54379999999999995</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0.2472</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" s="2">
-        <v>45115</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D196" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E196" s="3">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="F196" s="3">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0.29509999999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" s="3">
+        <v>0.4642</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0.2344</v>
+      </c>
+      <c r="G197" s="3">
+        <v>0.3014</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="3">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0.2702</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0.4793</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" s="1">
+        <v>45185</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0.1946</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0.25259999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E200" s="3">
+        <v>0.2039</v>
+      </c>
+      <c r="F200" s="3">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0.56510000000000005</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" s="3">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0.24640000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B202" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E202" s="3">
+        <v>0.2213</v>
+      </c>
+      <c r="F202" s="3">
+        <v>0.21820000000000001</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0.5605</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B203" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E203" s="3">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="F203" s="3">
+        <v>0.2102</v>
+      </c>
+      <c r="G203" s="3">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E204" s="3">
+        <v>0.2646</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0.4879</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="3">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="F205" s="3">
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0.34429999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B206" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0.35020000000000001</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0.2271</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0.42270000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C207" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B131" s="2">
-        <v>45115</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="D207" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0.2455</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0.34960000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B208" s="1">
+        <v>45192</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0.2422</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0.2868</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B209" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0.183</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0.1479</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B210" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0.55589999999999995</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0.2069</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B211" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0.1943</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0.2722</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B212" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="3">
+        <v>0.49730000000000002</v>
+      </c>
+      <c r="F212" s="3">
+        <v>0.22040000000000001</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0.28220000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B213" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="3">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="F213" s="3">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="G213" s="3">
+        <v>9.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B214" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0.4723</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0.26490000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B215" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="3">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="F215" s="3">
+        <v>0.26629999999999998</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0.35849999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B216" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="3">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0.216</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0.36549999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B217" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" s="3">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="F217" s="3">
+        <v>0.26140000000000002</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0.49170000000000003</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B218" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" s="3">
+        <v>0.58360000000000001</v>
+      </c>
+      <c r="F218" s="3">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0.19170000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B219" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0.2326</v>
+      </c>
+      <c r="F219" s="3">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0.55110000000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B220" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B132" s="2">
-        <v>45115</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="E220" s="3">
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="F220" s="3">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0.23630000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B221" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221" s="3">
+        <v>0.47239999999999999</v>
+      </c>
+      <c r="F221" s="3">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="G221" s="3">
+        <v>0.2838</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B222" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" s="3">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="F222" s="3">
+        <v>0.222</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0.16189999999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B223" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E223" s="3">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0.32769999999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B224" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224" s="3">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="F224" s="3">
+        <v>0.2591</v>
+      </c>
+      <c r="G224" s="3">
+        <v>0.32440000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B225" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="F225" s="3">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="G225" s="3">
+        <v>0.52110000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B226" s="1">
+        <v>45220</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0.2495</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B227" s="1">
+        <v>45226</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E227" s="3">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="F227" s="3">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="G227" s="3">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B228" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" s="3">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="F228" s="3">
+        <v>0.1673</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0.16769999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B229" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0.1802</v>
+      </c>
+      <c r="F229" s="3">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="G229" s="3">
+        <v>0.61309999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B230" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E230" s="3">
+        <v>0.33489999999999998</v>
+      </c>
+      <c r="F230" s="3">
+        <v>0.2336</v>
+      </c>
+      <c r="G230" s="3">
+        <v>0.43149999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B231" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E231" s="3">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="F231" s="3">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="G231" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B232" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F232" s="3">
+        <v>0.2296</v>
+      </c>
+      <c r="G232" s="3">
+        <v>0.21740000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B233" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E233" s="3">
+        <v>0.3584</v>
+      </c>
+      <c r="F233" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G233" s="3">
+        <v>0.36559999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B234" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D234" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E234" s="3">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="F234" s="3">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="G234" s="3">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B235" s="1">
+        <v>45227</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="F235" s="3">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="G235" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B236" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" s="3">
+        <v>0.38240000000000002</v>
+      </c>
+      <c r="F236" s="3">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="G236" s="3">
+        <v>0.3574</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B237" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" s="3">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="F237" s="3">
+        <v>0.2213</v>
+      </c>
+      <c r="G237" s="3">
+        <v>0.49130000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B238" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E238" s="3">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="F238" s="3">
+        <v>0.2077</v>
+      </c>
+      <c r="G238" s="3">
+        <v>0.41849999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B239" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" s="3">
+        <v>0.58340000000000003</v>
+      </c>
+      <c r="F239" s="3">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="G239" s="3">
+        <v>0.19170000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B240" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E240" s="3">
+        <v>0.6048</v>
+      </c>
+      <c r="F240" s="3">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="G240" s="3">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B241" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D241" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B133" s="2">
-        <v>45115</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="E241" s="3">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="F241" s="3">
+        <v>0.2306</v>
+      </c>
+      <c r="G241" s="3">
+        <v>0.17480000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B242" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" s="3">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="F242" s="3">
+        <v>0.2482</v>
+      </c>
+      <c r="G242" s="3">
+        <v>0.52110000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B243" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="F243" s="3">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="G243" s="3">
+        <v>0.36320000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B244" s="1">
+        <v>45241</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244" s="3">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="F244" s="3">
+        <v>0.21560000000000001</v>
+      </c>
+      <c r="G244" s="3">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B245" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E245" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F245" s="3">
+        <v>0.1951</v>
+      </c>
+      <c r="G245" s="3">
+        <v>0.4118</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B246" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E246" s="3">
+        <v>0.56810000000000005</v>
+      </c>
+      <c r="F246" s="3">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="G246" s="3">
+        <v>0.2107</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B247" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" s="3">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="F247" s="3">
+        <v>0.24610000000000001</v>
+      </c>
+      <c r="G247" s="3">
+        <v>0.16089999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B248" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="3">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F248" s="3">
+        <v>0.249</v>
+      </c>
+      <c r="G248" s="3">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B249" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E249" s="3">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="F249" s="3">
+        <v>0.1492</v>
+      </c>
+      <c r="G249" s="3">
+        <v>0.1173</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B250" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250" s="3">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="F250" s="3">
+        <v>0.252</v>
+      </c>
+      <c r="G250" s="3">
+        <v>0.44440000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B251" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D251" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B134" s="2">
-        <v>45115</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="E251" s="3">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F251" s="3">
+        <v>0.2445</v>
+      </c>
+      <c r="G251" s="3">
+        <v>0.2165</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B252" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D252" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E252" s="3">
+        <v>0.33489999999999998</v>
+      </c>
+      <c r="F252" s="3">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="G252" s="3">
+        <v>0.40570000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B253" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E253" s="3">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="F253" s="3">
+        <v>0.24510000000000001</v>
+      </c>
+      <c r="G253" s="3">
+        <v>0.33729999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B254" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E254" s="3">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="F254" s="3">
+        <v>0.2452</v>
+      </c>
+      <c r="G254" s="3">
+        <v>0.45929999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B255" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" s="3">
+        <v>0.57269999999999999</v>
+      </c>
+      <c r="F255" s="3">
+        <v>0.2329</v>
+      </c>
+      <c r="G255" s="3">
+        <v>0.19450000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B256" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B135" s="2">
-        <v>45115</v>
-      </c>
-      <c r="C135" t="s">
-        <v>22</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="D256" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" s="3">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="F256" s="3">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G256" s="3">
+        <v>0.44030000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B257" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" s="3">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="F257" s="3">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="G257" s="3">
+        <v>0.4874</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B258" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" s="3">
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="F258" s="3">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="G258" s="3">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B259" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E259" s="3">
+        <v>0.2747</v>
+      </c>
+      <c r="F259" s="3">
+        <v>0.26069999999999999</v>
+      </c>
+      <c r="G259" s="3">
+        <v>0.46450000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B260" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D260" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B136" s="2">
-        <v>45121</v>
-      </c>
-      <c r="C136" t="s">
-        <v>26</v>
-      </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B137" s="2">
-        <v>45122</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="E260" s="3">
+        <v>0.22819999999999999</v>
+      </c>
+      <c r="F260" s="3">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="G260" s="3">
+        <v>0.5403</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B261" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D137" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B138" s="2">
-        <v>45123</v>
-      </c>
-      <c r="C138" t="s">
-        <v>21</v>
-      </c>
-      <c r="D138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B139" s="2">
-        <v>45123</v>
-      </c>
-      <c r="C139" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B140" s="2">
-        <v>45123</v>
-      </c>
-      <c r="C140" t="s">
-        <v>24</v>
-      </c>
-      <c r="D140" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B141" s="2">
-        <v>45123</v>
-      </c>
-      <c r="C141" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B142" s="2">
-        <v>45123</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="E261" s="3">
+        <v>0.1915</v>
+      </c>
+      <c r="F261" s="3">
+        <v>0.1928</v>
+      </c>
+      <c r="G261" s="3">
+        <v>0.61570000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B262" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C262" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D142" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B143" s="2">
-        <v>45123</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="D262" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D143" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B144" s="2">
-        <v>45123</v>
-      </c>
-      <c r="C144" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B145" s="2">
-        <v>45143</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B146" s="2">
-        <v>45143</v>
-      </c>
-      <c r="C146" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B147" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C147" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B148" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C148" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B149" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C149" t="s">
-        <v>22</v>
-      </c>
-      <c r="D149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B150" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B151" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C151" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D152" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B153" s="2">
-        <v>45144</v>
-      </c>
-      <c r="C153" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B154" s="2">
-        <v>45149</v>
-      </c>
-      <c r="C154" t="s">
-        <v>26</v>
-      </c>
-      <c r="D154" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B155" s="2">
-        <v>45150</v>
-      </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B156" s="2">
-        <v>45150</v>
-      </c>
-      <c r="C156" t="s">
-        <v>27</v>
-      </c>
-      <c r="D156" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B157" s="2">
-        <v>45150</v>
-      </c>
-      <c r="C157" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B158" s="2">
-        <v>45150</v>
-      </c>
-      <c r="C158" t="s">
-        <v>10</v>
-      </c>
-      <c r="D158" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B159" s="2">
-        <v>45150</v>
-      </c>
-      <c r="C159" t="s">
-        <v>23</v>
-      </c>
-      <c r="D159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B160" s="2">
-        <v>45150</v>
-      </c>
-      <c r="C160" t="s">
-        <v>25</v>
-      </c>
-      <c r="D160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B161" s="2">
-        <v>45151</v>
-      </c>
-      <c r="C161" t="s">
-        <v>21</v>
-      </c>
-      <c r="D161" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B162" s="2">
-        <v>45151</v>
-      </c>
-      <c r="C162" t="s">
-        <v>15</v>
-      </c>
-      <c r="D162" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B163" s="2">
-        <v>45156</v>
-      </c>
-      <c r="C163" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B164" s="2">
-        <v>45157</v>
-      </c>
-      <c r="C164" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B165" s="2">
-        <v>45157</v>
-      </c>
-      <c r="C165" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B166" s="2">
-        <v>45157</v>
-      </c>
-      <c r="C166" t="s">
-        <v>21</v>
-      </c>
-      <c r="D166" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B167" s="2">
-        <v>45157</v>
-      </c>
-      <c r="C167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B168" s="2">
-        <v>45157</v>
-      </c>
-      <c r="C168" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B169" s="2">
-        <v>45157</v>
-      </c>
-      <c r="C169" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B170" s="2">
-        <v>45157</v>
-      </c>
-      <c r="C170" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B171" s="2">
-        <v>45158</v>
-      </c>
-      <c r="C171" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B172" s="2">
-        <v>45163</v>
-      </c>
-      <c r="C172" t="s">
-        <v>18</v>
-      </c>
-      <c r="D172" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B173" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C173" t="s">
-        <v>20</v>
-      </c>
-      <c r="D173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B174" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B175" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C175" t="s">
-        <v>24</v>
-      </c>
-      <c r="D175" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B176" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C176" t="s">
-        <v>22</v>
-      </c>
-      <c r="D176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B177" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C177" t="s">
-        <v>27</v>
-      </c>
-      <c r="D177" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B178" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C178" t="s">
-        <v>10</v>
-      </c>
-      <c r="D178" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B179" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C179" t="s">
-        <v>23</v>
-      </c>
-      <c r="D179" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B180" s="2">
-        <v>45164</v>
-      </c>
-      <c r="C180" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B181" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C181" t="s">
-        <v>24</v>
-      </c>
-      <c r="D181" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B182" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C182" t="s">
-        <v>17</v>
-      </c>
-      <c r="D182" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B183" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C183" t="s">
-        <v>26</v>
-      </c>
-      <c r="D183" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B184" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C184" t="s">
-        <v>23</v>
-      </c>
-      <c r="D184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B185" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C185" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B186" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C186" t="s">
-        <v>22</v>
-      </c>
-      <c r="D186" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B187" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C187" t="s">
-        <v>10</v>
-      </c>
-      <c r="D187" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B188" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C188" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B189" s="2">
-        <v>45171</v>
-      </c>
-      <c r="C189" t="s">
-        <v>18</v>
-      </c>
-      <c r="D189" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B190" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C190" t="s">
-        <v>21</v>
-      </c>
-      <c r="D190" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B191" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C191" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B192" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C192" t="s">
-        <v>20</v>
-      </c>
-      <c r="D192" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B193" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C193" t="s">
-        <v>27</v>
-      </c>
-      <c r="D193" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B194" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C194" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B195" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C195" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B196" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C196" t="s">
-        <v>13</v>
-      </c>
-      <c r="D196" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B197" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C197" t="s">
-        <v>12</v>
-      </c>
-      <c r="D197" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B198" s="2">
-        <v>45185</v>
-      </c>
-      <c r="C198" t="s">
-        <v>26</v>
-      </c>
-      <c r="D198" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B199" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C199" t="s">
-        <v>18</v>
-      </c>
-      <c r="D199" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B200" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C200" t="s">
-        <v>14</v>
-      </c>
-      <c r="D200" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B201" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C201" t="s">
-        <v>23</v>
-      </c>
-      <c r="D201" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B202" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C202" t="s">
-        <v>19</v>
-      </c>
-      <c r="D202" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B203" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C203" t="s">
-        <v>20</v>
-      </c>
-      <c r="D203" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B204" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C204" t="s">
-        <v>10</v>
-      </c>
-      <c r="D204" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B205" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B206" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C206" t="s">
-        <v>15</v>
-      </c>
-      <c r="D206" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B207" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C207" t="s">
-        <v>16</v>
-      </c>
-      <c r="D207" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B208" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C208" t="s">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B209" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C209" t="s">
-        <v>27</v>
-      </c>
-      <c r="D209" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B210" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C210" t="s">
-        <v>25</v>
-      </c>
-      <c r="D210" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B211" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C211" t="s">
-        <v>24</v>
-      </c>
-      <c r="D211" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B212" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C212" t="s">
-        <v>26</v>
-      </c>
-      <c r="D212" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B213" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C213" t="s">
-        <v>23</v>
-      </c>
-      <c r="D213" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B214" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C214" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B215" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C215" t="s">
-        <v>21</v>
-      </c>
-      <c r="D215" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B216" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C216" t="s">
-        <v>13</v>
-      </c>
-      <c r="D216" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B217" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C217" t="s">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B218" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C218" t="s">
-        <v>21</v>
-      </c>
-      <c r="D218" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B219" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C219" t="s">
-        <v>16</v>
-      </c>
-      <c r="D219" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B220" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C220" t="s">
-        <v>27</v>
-      </c>
-      <c r="D220" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B221" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C221" t="s">
-        <v>19</v>
-      </c>
-      <c r="D221" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B222" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C222" t="s">
-        <v>14</v>
-      </c>
-      <c r="D222" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B223" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C223" t="s">
-        <v>25</v>
-      </c>
-      <c r="D223" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B224" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C224" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B225" s="2">
-        <v>45220</v>
-      </c>
-      <c r="C225" t="s">
-        <v>17</v>
-      </c>
-      <c r="D225" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B226" s="2">
-        <v>45226</v>
-      </c>
-      <c r="C226" t="s">
-        <v>15</v>
-      </c>
-      <c r="D226" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B227" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C227" t="s">
-        <v>10</v>
-      </c>
-      <c r="D227" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B228" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C228" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B229" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C229" t="s">
-        <v>16</v>
-      </c>
-      <c r="D229" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B230" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C230" t="s">
-        <v>20</v>
-      </c>
-      <c r="D230" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B231" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C231" t="s">
-        <v>23</v>
-      </c>
-      <c r="D231" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B232" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C232" t="s">
-        <v>26</v>
-      </c>
-      <c r="D232" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B233" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C233" t="s">
-        <v>24</v>
-      </c>
-      <c r="D233" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B234" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C234" t="s">
-        <v>13</v>
-      </c>
-      <c r="D234" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B235" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C235" t="s">
-        <v>14</v>
-      </c>
-      <c r="D235" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B236" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C236" t="s">
-        <v>26</v>
-      </c>
-      <c r="D236" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B237" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C237" t="s">
-        <v>19</v>
-      </c>
-      <c r="D237" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B238" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C238" t="s">
-        <v>20</v>
-      </c>
-      <c r="D238" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B239" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C239" t="s">
-        <v>27</v>
-      </c>
-      <c r="D239" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B240" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C240" t="s">
-        <v>22</v>
-      </c>
-      <c r="D240" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B241" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C241" t="s">
-        <v>18</v>
-      </c>
-      <c r="D241" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B242" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C242" t="s">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B243" s="2">
-        <v>45241</v>
-      </c>
-      <c r="C243" t="s">
-        <v>25</v>
-      </c>
-      <c r="D243" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B244" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C244" t="s">
-        <v>21</v>
-      </c>
-      <c r="D244" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B245" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C245" t="s">
-        <v>12</v>
-      </c>
-      <c r="D245" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B246" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C246" t="s">
-        <v>25</v>
-      </c>
-      <c r="D246" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B247" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C247" t="s">
-        <v>17</v>
-      </c>
-      <c r="D247" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B248" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C248" t="s">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B249" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C249" t="s">
-        <v>27</v>
-      </c>
-      <c r="D249" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B250" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C250" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B251" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C251" t="s">
-        <v>24</v>
-      </c>
-      <c r="D251" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B252" s="2">
-        <v>45255</v>
-      </c>
-      <c r="C252" t="s">
-        <v>23</v>
-      </c>
-      <c r="D252" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B253" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C253" t="s">
-        <v>19</v>
-      </c>
-      <c r="D253" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B254" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C254" t="s">
-        <v>22</v>
-      </c>
-      <c r="D254" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B255" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C255" t="s">
-        <v>18</v>
-      </c>
-      <c r="D255" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B256" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C256" t="s">
-        <v>20</v>
-      </c>
-      <c r="D256" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B257" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C257" t="s">
-        <v>16</v>
-      </c>
-      <c r="D257" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B258" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C258" t="s">
-        <v>26</v>
-      </c>
-      <c r="D258" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B259" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C259" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B260" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C260" t="s">
-        <v>13</v>
-      </c>
-      <c r="D260" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B261" s="2">
-        <v>45262</v>
-      </c>
-      <c r="C261" t="s">
-        <v>14</v>
-      </c>
-      <c r="D261" t="s">
-        <v>24</v>
+      <c r="E262" s="3">
+        <v>0.1867</v>
+      </c>
+      <c r="F262" s="3">
+        <v>0.2001</v>
+      </c>
+      <c r="G262" s="3">
+        <v>0.61319999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/RPS_J1_fivethirtyeight.xlsx
+++ b/RPS_J1_fivethirtyeight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/machub/CodeDir/jleague/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA14C9-E0EE-924B-8103-7697EE8124DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF0D0AF-7BE6-8540-AA04-841378160CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="1440" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E02C17-E814-A843-B1BD-2C9460419809}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C45325C-3FF3-8640-942E-A0432CD44893}">
   <dimension ref="B1:S262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="176" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="L2">
         <f>AVERAGE(J2:J999)</f>
-        <v>0.22254051270833328</v>
+        <v>0.22693249232804236</v>
       </c>
       <c r="N2">
         <f>IF(H2&gt;I2,1,0)</f>
@@ -5793,31 +5793,31 @@
         <v>3</v>
       </c>
       <c r="J99">
-        <f t="shared" ref="J99:J145" si="49">S99*(1/2)</f>
+        <f t="shared" ref="J99:J185" si="49">S99*(1/2)</f>
         <v>4.063520000000001E-2</v>
       </c>
       <c r="N99">
-        <f t="shared" ref="N99:N145" si="50">IF(H99&gt;I99,1,0)</f>
+        <f t="shared" ref="N99:N185" si="50">IF(H99&gt;I99,1,0)</f>
         <v>1</v>
       </c>
       <c r="O99">
-        <f t="shared" ref="O99:O145" si="51">IF(H99=I99,1,0)</f>
+        <f t="shared" ref="O99:O185" si="51">IF(H99=I99,1,0)</f>
         <v>0</v>
       </c>
       <c r="P99">
-        <f t="shared" ref="P99:P145" si="52">IF(H99&lt;I99,1,0)</f>
+        <f t="shared" ref="P99:P185" si="52">IF(H99&lt;I99,1,0)</f>
         <v>0</v>
       </c>
       <c r="Q99">
-        <f t="shared" ref="Q99:Q145" si="53">(E99-N99)^2</f>
+        <f t="shared" ref="Q99:Q185" si="53">(E99-N99)^2</f>
         <v>7.0119040000000021E-2</v>
       </c>
       <c r="R99">
-        <f t="shared" ref="R99:R145" si="54">((E99+F99)-(N99+O99))^2+Q99</f>
+        <f t="shared" ref="R99:R185" si="54">((E99+F99)-(N99+O99))^2+Q99</f>
         <v>8.127040000000002E-2</v>
       </c>
       <c r="S99">
-        <f t="shared" ref="S99:S145" si="55">((E99+F99+G99)-(N99+O99+P99))^2+R99</f>
+        <f t="shared" ref="S99:S185" si="55">((E99+F99+G99)-(N99+O99+P99))^2+R99</f>
         <v>8.127040000000002E-2</v>
       </c>
     </row>
@@ -8324,6 +8324,40 @@
       <c r="G146" s="3">
         <v>0.50580000000000003</v>
       </c>
+      <c r="H146" s="3">
+        <v>1</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="49"/>
+        <v>0.40677194000000005</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="53"/>
+        <v>0.55771024000000002</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="54"/>
+        <v>0.81354388000000011</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="55"/>
+        <v>0.81354388000000011</v>
+      </c>
     </row>
     <row r="147" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
@@ -8344,6 +8378,40 @@
       <c r="G147" s="3">
         <v>0.15290000000000001</v>
       </c>
+      <c r="H147" s="3">
+        <v>1</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="49"/>
+        <v>7.7900810000000015E-2</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="53"/>
+        <v>0.13242321000000001</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="54"/>
+        <v>0.15580162000000003</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="55"/>
+        <v>0.15580162000000003</v>
+      </c>
     </row>
     <row r="148" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
@@ -8364,6 +8432,40 @@
       <c r="G148" s="3">
         <v>0.28860000000000002</v>
       </c>
+      <c r="H148" s="3">
+        <v>3</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="49"/>
+        <v>0.16331742499999996</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="53"/>
+        <v>0.24334488999999995</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="54"/>
+        <v>0.32663484999999992</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="55"/>
+        <v>0.32663484999999992</v>
+      </c>
     </row>
     <row r="149" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
@@ -8384,6 +8486,40 @@
       <c r="G149" s="3">
         <v>0.71350000000000002</v>
       </c>
+      <c r="H149" s="3">
+        <v>2</v>
+      </c>
+      <c r="I149" s="3">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="49"/>
+        <v>0.64516370500000009</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="53"/>
+        <v>0.78110244000000006</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="54"/>
+        <v>1.2903274000000002</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="55"/>
+        <v>1.2903274100000002</v>
+      </c>
     </row>
     <row r="150" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
@@ -8404,6 +8540,40 @@
       <c r="G150" s="3">
         <v>0.2717</v>
       </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="49"/>
+        <v>0.367435285</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="53"/>
+        <v>0.20430400000000001</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="54"/>
+        <v>0.73487055999999995</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="55"/>
+        <v>0.73487057</v>
+      </c>
     </row>
     <row r="151" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B151" s="1">
@@ -8424,6 +8594,40 @@
       <c r="G151" s="3">
         <v>0.28699999999999998</v>
       </c>
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="49"/>
+        <v>0.36849865500000006</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="53"/>
+        <v>0.22877089</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="54"/>
+        <v>0.73699730000000008</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="55"/>
+        <v>0.73699731000000013</v>
+      </c>
     </row>
     <row r="152" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
@@ -8444,6 +8648,40 @@
       <c r="G152" s="3">
         <v>0.34660000000000002</v>
       </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="3">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="49"/>
+        <v>0.29318602500000002</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="53"/>
+        <v>0.15944048999999999</v>
+      </c>
+      <c r="R152">
+        <f t="shared" si="54"/>
+        <v>0.58637205000000003</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="55"/>
+        <v>0.58637205000000003</v>
+      </c>
     </row>
     <row r="153" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
@@ -8464,6 +8702,40 @@
       <c r="G153" s="3">
         <v>0.37690000000000001</v>
       </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="49"/>
+        <v>0.14591130499999999</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="53"/>
+        <v>0.14976900000000001</v>
+      </c>
+      <c r="R153">
+        <f t="shared" si="54"/>
+        <v>0.29182260999999998</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="55"/>
+        <v>0.29182260999999998</v>
+      </c>
     </row>
     <row r="154" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
@@ -8484,6 +8756,40 @@
       <c r="G154" s="3">
         <v>0.18310000000000001</v>
       </c>
+      <c r="H154" s="3">
+        <v>3</v>
+      </c>
+      <c r="I154" s="3">
+        <v>4</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="49"/>
+        <v>0.5253250049999999</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="53"/>
+        <v>0.38316099999999997</v>
+      </c>
+      <c r="R154">
+        <f t="shared" si="54"/>
+        <v>1.0506499999999999</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="55"/>
+        <v>1.0506500099999998</v>
+      </c>
     </row>
     <row r="155" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
@@ -8504,6 +8810,40 @@
       <c r="G155" s="3">
         <v>0.33529999999999999</v>
       </c>
+      <c r="H155" s="3">
+        <v>1</v>
+      </c>
+      <c r="I155" s="3">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="49"/>
+        <v>0.15759809000000002</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P155">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" si="53"/>
+        <v>0.20277008999999999</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="54"/>
+        <v>0.31519618000000005</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="55"/>
+        <v>0.31519618000000005</v>
+      </c>
     </row>
     <row r="156" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
@@ -8524,6 +8864,40 @@
       <c r="G156" s="3">
         <v>0.38700000000000001</v>
       </c>
+      <c r="H156" s="3">
+        <v>2</v>
+      </c>
+      <c r="I156" s="3">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="49"/>
+        <v>0.14146050500000001</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P156">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="53"/>
+        <v>0.13315201000000002</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="54"/>
+        <v>0.28292101000000003</v>
+      </c>
+      <c r="S156">
+        <f t="shared" si="55"/>
+        <v>0.28292101000000003</v>
+      </c>
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
@@ -8544,6 +8918,40 @@
       <c r="G157" s="3">
         <v>0.47370000000000001</v>
       </c>
+      <c r="H157" s="3">
+        <v>1</v>
+      </c>
+      <c r="I157" s="3">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="49"/>
+        <v>0.15125597000000002</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P157">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <f t="shared" si="53"/>
+        <v>7.8120250000000016E-2</v>
+      </c>
+      <c r="R157">
+        <f t="shared" si="54"/>
+        <v>0.30251194000000003</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="55"/>
+        <v>0.30251194000000003</v>
+      </c>
     </row>
     <row r="158" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
@@ -8564,6 +8972,40 @@
       <c r="G158" s="3">
         <v>0.41099999999999998</v>
       </c>
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="3">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="49"/>
+        <v>0.23719752999999999</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <f t="shared" si="53"/>
+        <v>0.12759184000000001</v>
+      </c>
+      <c r="R158">
+        <f t="shared" si="54"/>
+        <v>0.47439504999999998</v>
+      </c>
+      <c r="S158">
+        <f t="shared" si="55"/>
+        <v>0.47439505999999998</v>
+      </c>
     </row>
     <row r="159" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
@@ -8584,6 +9026,40 @@
       <c r="G159" s="3">
         <v>0.28210000000000002</v>
       </c>
+      <c r="H159" s="3">
+        <v>2</v>
+      </c>
+      <c r="I159" s="3">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="49"/>
+        <v>0.17232301000000003</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <f t="shared" si="53"/>
+        <v>0.26512201000000002</v>
+      </c>
+      <c r="R159">
+        <f t="shared" si="54"/>
+        <v>0.34464601000000006</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="55"/>
+        <v>0.34464602000000005</v>
+      </c>
     </row>
     <row r="160" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B160" s="1">
@@ -8604,8 +9080,42 @@
       <c r="G160" s="3">
         <v>0.21709999999999999</v>
       </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H160" s="3">
+        <v>2</v>
+      </c>
+      <c r="I160" s="3">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="49"/>
+        <v>0.13317182499999997</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O160">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <f t="shared" si="53"/>
+        <v>0.21921123999999995</v>
+      </c>
+      <c r="R160">
+        <f t="shared" si="54"/>
+        <v>0.26634364999999993</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="55"/>
+        <v>0.26634364999999993</v>
+      </c>
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B161" s="1">
         <v>45150</v>
       </c>
@@ -8624,8 +9134,42 @@
       <c r="G161" s="3">
         <v>0.1484</v>
       </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H161" s="3">
+        <v>2</v>
+      </c>
+      <c r="I161" s="3">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="49"/>
+        <v>6.0325855000000025E-2</v>
+      </c>
+      <c r="N161">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <f t="shared" si="53"/>
+        <v>9.8658810000000027E-2</v>
+      </c>
+      <c r="R161">
+        <f t="shared" si="54"/>
+        <v>0.12065170000000006</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="55"/>
+        <v>0.12065171000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
         <v>45151</v>
       </c>
@@ -8644,8 +9188,42 @@
       <c r="G162" s="3">
         <v>0.33689999999999998</v>
       </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="49"/>
+        <v>0.24237404999999995</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <f t="shared" si="53"/>
+        <v>0.37124648999999993</v>
+      </c>
+      <c r="R162">
+        <f t="shared" si="54"/>
+        <v>0.4847480999999999</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="55"/>
+        <v>0.4847480999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B163" s="1">
         <v>45151</v>
       </c>
@@ -8664,8 +9242,42 @@
       <c r="G163" s="3">
         <v>0.40100000000000002</v>
       </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H163" s="3">
+        <v>2</v>
+      </c>
+      <c r="I163" s="3">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="49"/>
+        <v>0.30424790500000004</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <f t="shared" si="53"/>
+        <v>0.44769481000000005</v>
+      </c>
+      <c r="R163">
+        <f t="shared" si="54"/>
+        <v>0.60849581000000008</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="55"/>
+        <v>0.60849581000000008</v>
+      </c>
+    </row>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
         <v>45156</v>
       </c>
@@ -8684,8 +9296,42 @@
       <c r="G164" s="3">
         <v>0.2722</v>
       </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="3">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="49"/>
+        <v>0.37694754499999999</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q164">
+        <f t="shared" si="53"/>
+        <v>0.22420224999999996</v>
+      </c>
+      <c r="R164">
+        <f t="shared" si="54"/>
+        <v>0.75389508999999999</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="55"/>
+        <v>0.75389508999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B165" s="1">
         <v>45156</v>
       </c>
@@ -8704,8 +9350,42 @@
       <c r="G165" s="3">
         <v>0.28370000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="49"/>
+        <v>0.19867105000000002</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <f t="shared" si="53"/>
+        <v>0.31685640999999998</v>
+      </c>
+      <c r="R165">
+        <f t="shared" si="54"/>
+        <v>0.39734210000000003</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="55"/>
+        <v>0.39734210000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B166" s="1">
         <v>45157</v>
       </c>
@@ -8724,8 +9404,42 @@
       <c r="G166" s="3">
         <v>0.2389</v>
       </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H166" s="3">
+        <v>2</v>
+      </c>
+      <c r="I166" s="3">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="49"/>
+        <v>0.15199140999999999</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <f t="shared" si="53"/>
+        <v>0.24690961</v>
+      </c>
+      <c r="R166">
+        <f t="shared" si="54"/>
+        <v>0.30398281999999999</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="55"/>
+        <v>0.30398281999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
         <v>45157</v>
       </c>
@@ -8744,8 +9458,42 @@
       <c r="G167" s="3">
         <v>0.39100000000000001</v>
       </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H167" s="3">
+        <v>3</v>
+      </c>
+      <c r="I167" s="3">
+        <v>2</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="49"/>
+        <v>0.27593888999999999</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <f t="shared" si="53"/>
+        <v>0.39891855999999992</v>
+      </c>
+      <c r="R167">
+        <f t="shared" si="54"/>
+        <v>0.55187776999999993</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="55"/>
+        <v>0.55187777999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
         <v>45157</v>
       </c>
@@ -8764,8 +9512,42 @@
       <c r="G168" s="3">
         <v>0.47889999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H168" s="3">
+        <v>3</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="49"/>
+        <v>0.34981275000000001</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <f t="shared" si="53"/>
+        <v>0.47018448999999995</v>
+      </c>
+      <c r="R168">
+        <f t="shared" si="54"/>
+        <v>0.69962548999999996</v>
+      </c>
+      <c r="S168">
+        <f t="shared" si="55"/>
+        <v>0.69962550000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
         <v>45157</v>
       </c>
@@ -8784,8 +9566,42 @@
       <c r="G169" s="3">
         <v>0.1512</v>
       </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H169" s="3">
+        <v>1</v>
+      </c>
+      <c r="I169" s="3">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="49"/>
+        <v>0.22771536499999998</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P169">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <f t="shared" si="53"/>
+        <v>0.43256928999999994</v>
+      </c>
+      <c r="R169">
+        <f t="shared" si="54"/>
+        <v>0.45543072999999995</v>
+      </c>
+      <c r="S169">
+        <f t="shared" si="55"/>
+        <v>0.45543072999999995</v>
+      </c>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B170" s="1">
         <v>45157</v>
       </c>
@@ -8804,8 +9620,42 @@
       <c r="G170" s="3">
         <v>0.33739999999999998</v>
       </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H170" s="3">
+        <v>2</v>
+      </c>
+      <c r="I170" s="3">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="49"/>
+        <v>0.22703882499999992</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <f t="shared" si="53"/>
+        <v>0.34023888999999991</v>
+      </c>
+      <c r="R170">
+        <f t="shared" si="54"/>
+        <v>0.45407764999999983</v>
+      </c>
+      <c r="S170">
+        <f t="shared" si="55"/>
+        <v>0.45407764999999983</v>
+      </c>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B171" s="1">
         <v>45157</v>
       </c>
@@ -8824,8 +9674,42 @@
       <c r="G171" s="3">
         <v>0.20580000000000001</v>
       </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H171" s="3">
+        <v>2</v>
+      </c>
+      <c r="I171" s="3">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="49"/>
+        <v>9.617746499999999E-2</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <f t="shared" si="53"/>
+        <v>0.15000128999999998</v>
+      </c>
+      <c r="R171">
+        <f t="shared" si="54"/>
+        <v>0.19235492999999998</v>
+      </c>
+      <c r="S171">
+        <f t="shared" si="55"/>
+        <v>0.19235492999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B172" s="1">
         <v>45158</v>
       </c>
@@ -8844,8 +9728,42 @@
       <c r="G172" s="3">
         <v>0.59589999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+      <c r="I172" s="3">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="49"/>
+        <v>9.8083250000000011E-2</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <f t="shared" si="53"/>
+        <v>3.2869689999999993E-2</v>
+      </c>
+      <c r="R172">
+        <f t="shared" si="54"/>
+        <v>0.19616650000000002</v>
+      </c>
+      <c r="S172">
+        <f t="shared" si="55"/>
+        <v>0.19616650000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B173" s="1">
         <v>45163</v>
       </c>
@@ -8864,8 +9782,42 @@
       <c r="G173" s="3">
         <v>0.5645</v>
       </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H173" s="3">
+        <v>0</v>
+      </c>
+      <c r="I173" s="3">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="49"/>
+        <v>0.11405773</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q173">
+        <f t="shared" si="53"/>
+        <v>3.8455209999999997E-2</v>
+      </c>
+      <c r="R173">
+        <f t="shared" si="54"/>
+        <v>0.22811545999999999</v>
+      </c>
+      <c r="S173">
+        <f t="shared" si="55"/>
+        <v>0.22811545999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B174" s="1">
         <v>45164</v>
       </c>
@@ -8884,8 +9836,42 @@
       <c r="G174" s="3">
         <v>0.15029999999999999</v>
       </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H174" s="3">
+        <v>2</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="49"/>
+        <v>7.3619829999999983E-2</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <f t="shared" si="53"/>
+        <v>0.12467960999999998</v>
+      </c>
+      <c r="R174">
+        <f t="shared" si="54"/>
+        <v>0.14723964999999997</v>
+      </c>
+      <c r="S174">
+        <f t="shared" si="55"/>
+        <v>0.14723965999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B175" s="1">
         <v>45164</v>
       </c>
@@ -8904,8 +9890,42 @@
       <c r="G175" s="3">
         <v>0.73480000000000001</v>
       </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H175" s="3">
+        <v>4</v>
+      </c>
+      <c r="I175" s="3">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="49"/>
+        <v>0.6615780200000001</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <f t="shared" si="53"/>
+        <v>0.78322500000000006</v>
+      </c>
+      <c r="R175">
+        <f t="shared" si="54"/>
+        <v>1.3231560400000002</v>
+      </c>
+      <c r="S175">
+        <f t="shared" si="55"/>
+        <v>1.3231560400000002</v>
+      </c>
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B176" s="1">
         <v>45164</v>
       </c>
@@ -8924,8 +9944,42 @@
       <c r="G176" s="3">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="3">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="49"/>
+        <v>0.15345107999999999</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P176">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <f t="shared" si="53"/>
+        <v>0.23561315999999999</v>
+      </c>
+      <c r="R176">
+        <f t="shared" si="54"/>
+        <v>0.30690215999999998</v>
+      </c>
+      <c r="S176">
+        <f t="shared" si="55"/>
+        <v>0.30690215999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B177" s="1">
         <v>45164</v>
       </c>
@@ -8944,8 +9998,42 @@
       <c r="G177" s="3">
         <v>0.49020000000000002</v>
       </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H177" s="3">
+        <v>0</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="49"/>
+        <v>0.15681951</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P177">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <f t="shared" si="53"/>
+        <v>7.3441000000000006E-2</v>
+      </c>
+      <c r="R177">
+        <f t="shared" si="54"/>
+        <v>0.31363901</v>
+      </c>
+      <c r="S177">
+        <f t="shared" si="55"/>
+        <v>0.31363901999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B178" s="1">
         <v>45164</v>
       </c>
@@ -8964,8 +10052,42 @@
       <c r="G178" s="3">
         <v>0.36509999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H178" s="3">
+        <v>3</v>
+      </c>
+      <c r="I178" s="3">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="49"/>
+        <v>0.27013450500000002</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <f t="shared" si="53"/>
+        <v>0.40704400000000002</v>
+      </c>
+      <c r="R178">
+        <f t="shared" si="54"/>
+        <v>0.540269</v>
+      </c>
+      <c r="S178">
+        <f t="shared" si="55"/>
+        <v>0.54026901000000005</v>
+      </c>
+    </row>
+    <row r="179" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
         <v>45164</v>
       </c>
@@ -8984,8 +10106,42 @@
       <c r="G179" s="3">
         <v>0.54120000000000001</v>
       </c>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H179" s="3">
+        <v>2</v>
+      </c>
+      <c r="I179" s="3">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="49"/>
+        <v>0.17717592500000001</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P179">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <f t="shared" si="53"/>
+        <v>6.1454410000000008E-2</v>
+      </c>
+      <c r="R179">
+        <f t="shared" si="54"/>
+        <v>0.35435185000000002</v>
+      </c>
+      <c r="S179">
+        <f t="shared" si="55"/>
+        <v>0.35435185000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B180" s="1">
         <v>45164</v>
       </c>
@@ -9004,8 +10160,42 @@
       <c r="G180" s="3">
         <v>0.28449999999999998</v>
       </c>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H180" s="3">
+        <v>2</v>
+      </c>
+      <c r="I180" s="3">
+        <v>2</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="49"/>
+        <v>0.17854524999999999</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P180">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <f t="shared" si="53"/>
+        <v>0.27615024999999999</v>
+      </c>
+      <c r="R180">
+        <f t="shared" si="54"/>
+        <v>0.35709049999999998</v>
+      </c>
+      <c r="S180">
+        <f t="shared" si="55"/>
+        <v>0.35709049999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B181" s="1">
         <v>45164</v>
       </c>
@@ -9024,8 +10214,42 @@
       <c r="G181" s="3">
         <v>0.34300000000000003</v>
       </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H181" s="3">
+        <v>2</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="49"/>
+        <v>0.24984830499999999</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <f t="shared" si="53"/>
+        <v>0.38204760999999998</v>
+      </c>
+      <c r="R181">
+        <f t="shared" si="54"/>
+        <v>0.49969660999999999</v>
+      </c>
+      <c r="S181">
+        <f t="shared" si="55"/>
+        <v>0.49969660999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B182" s="1">
         <v>45171</v>
       </c>
@@ -9044,8 +10268,42 @@
       <c r="G182" s="3">
         <v>0.61499999999999999</v>
       </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="3">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="49"/>
+        <v>0.20328600999999999</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="P182">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <f t="shared" si="53"/>
+        <v>2.8224000000000003E-2</v>
+      </c>
+      <c r="R182">
+        <f t="shared" si="54"/>
+        <v>0.40657200999999998</v>
+      </c>
+      <c r="S182">
+        <f t="shared" si="55"/>
+        <v>0.40657201999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B183" s="1">
         <v>45171</v>
       </c>
@@ -9064,8 +10322,42 @@
       <c r="G183" s="3">
         <v>0.61819999999999997</v>
       </c>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H183" s="3">
+        <v>2</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="49"/>
+        <v>0.51501762499999992</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <f t="shared" si="53"/>
+        <v>0.64786400999999993</v>
+      </c>
+      <c r="R183">
+        <f t="shared" si="54"/>
+        <v>1.0300352499999998</v>
+      </c>
+      <c r="S183">
+        <f t="shared" si="55"/>
+        <v>1.0300352499999998</v>
+      </c>
+    </row>
+    <row r="184" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <v>45171</v>
       </c>
@@ -9084,8 +10376,42 @@
       <c r="G184" s="3">
         <v>0.29089999999999999</v>
       </c>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+      <c r="I184" s="3">
+        <v>2</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="49"/>
+        <v>0.35957041000000001</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Q184">
+        <f t="shared" si="53"/>
+        <v>0.21631801000000001</v>
+      </c>
+      <c r="R184">
+        <f t="shared" si="54"/>
+        <v>0.71914082000000001</v>
+      </c>
+      <c r="S184">
+        <f t="shared" si="55"/>
+        <v>0.71914082000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B185" s="1">
         <v>45171</v>
       </c>
@@ -9104,8 +10430,42 @@
       <c r="G185" s="3">
         <v>0.26290000000000002</v>
       </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H185" s="3">
+        <v>4</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <f t="shared" ref="J185" si="56">S185*(1/2)</f>
+        <v>0.13689108500000002</v>
+      </c>
+      <c r="N185">
+        <f t="shared" ref="N185" si="57">IF(H185&gt;I185,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <f t="shared" ref="O185" si="58">IF(H185=I185,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <f t="shared" ref="P185" si="59">IF(H185&lt;I185,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <f t="shared" ref="Q185" si="60">(E185-N185)^2</f>
+        <v>0.20466576000000003</v>
+      </c>
+      <c r="R185">
+        <f t="shared" ref="R185" si="61">((E185+F185)-(N185+O185))^2+Q185</f>
+        <v>0.27378217000000005</v>
+      </c>
+      <c r="S185">
+        <f t="shared" ref="S185" si="62">((E185+F185+G185)-(N185+O185+P185))^2+R185</f>
+        <v>0.27378217000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B186" s="1">
         <v>45171</v>
       </c>
@@ -9124,8 +10484,42 @@
       <c r="G186" s="3">
         <v>0.39860000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H186" s="3">
+        <v>3</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <f t="shared" ref="J186:J190" si="63">S186*(1/2)</f>
+        <v>0.28696237499999999</v>
+      </c>
+      <c r="N186">
+        <f t="shared" ref="N186:N190" si="64">IF(H186&gt;I186,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <f t="shared" ref="O186:O190" si="65">IF(H186=I186,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <f t="shared" ref="P186:P190" si="66">IF(H186&lt;I186,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <f t="shared" ref="Q186:Q190" si="67">(E186-N186)^2</f>
+        <v>0.41512248999999996</v>
+      </c>
+      <c r="R186">
+        <f t="shared" ref="R186:R190" si="68">((E186+F186)-(N186+O186))^2+Q186</f>
+        <v>0.57392473999999993</v>
+      </c>
+      <c r="S186">
+        <f t="shared" ref="S186:S190" si="69">((E186+F186+G186)-(N186+O186+P186))^2+R186</f>
+        <v>0.57392474999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B187" s="1">
         <v>45171</v>
       </c>
@@ -9144,8 +10538,42 @@
       <c r="G187" s="3">
         <v>0.53359999999999996</v>
       </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H187" s="3">
+        <v>2</v>
+      </c>
+      <c r="I187" s="3">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="63"/>
+        <v>0.16803825999999999</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <f t="shared" si="67"/>
+        <v>5.134756E-2</v>
+      </c>
+      <c r="R187">
+        <f t="shared" si="68"/>
+        <v>0.33607651999999999</v>
+      </c>
+      <c r="S187">
+        <f t="shared" si="69"/>
+        <v>0.33607651999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B188" s="1">
         <v>45171</v>
       </c>
@@ -9164,8 +10592,42 @@
       <c r="G188" s="3">
         <v>0.40679999999999999</v>
       </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H188" s="3">
+        <v>0</v>
+      </c>
+      <c r="I188" s="3">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="63"/>
+        <v>0.23019529999999999</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <f t="shared" si="67"/>
+        <v>0.10850436000000002</v>
+      </c>
+      <c r="R188">
+        <f t="shared" si="68"/>
+        <v>0.46039059999999998</v>
+      </c>
+      <c r="S188">
+        <f t="shared" si="69"/>
+        <v>0.46039059999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B189" s="1">
         <v>45171</v>
       </c>
@@ -9184,8 +10646,42 @@
       <c r="G189" s="3">
         <v>0.11459999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H189" s="3">
+        <v>1</v>
+      </c>
+      <c r="I189" s="3">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="63"/>
+        <v>0.24372042499999999</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="P189">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <f t="shared" si="67"/>
+        <v>0.47430768999999995</v>
+      </c>
+      <c r="R189">
+        <f t="shared" si="68"/>
+        <v>0.48744084999999998</v>
+      </c>
+      <c r="S189">
+        <f t="shared" si="69"/>
+        <v>0.48744084999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B190" s="1">
         <v>45171</v>
       </c>
@@ -9204,8 +10700,42 @@
       <c r="G190" s="3">
         <v>0.14610000000000001</v>
       </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H190" s="3">
+        <v>2</v>
+      </c>
+      <c r="I190" s="3">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="63"/>
+        <v>6.9654130000000009E-2</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <f t="shared" si="67"/>
+        <v>0.11799225000000002</v>
+      </c>
+      <c r="R190">
+        <f t="shared" si="68"/>
+        <v>0.13930825000000002</v>
+      </c>
+      <c r="S190">
+        <f t="shared" si="69"/>
+        <v>0.13930826000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B191" s="1">
         <v>45185</v>
       </c>
@@ -9225,7 +10755,7 @@
         <v>0.46929999999999999</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B192" s="1">
         <v>45185</v>
       </c>
